--- a/data/AMIRIS-EMLABpy Data inventoryREADME.xlsx
+++ b/data/AMIRIS-EMLABpy Data inventoryREADME.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FA47F4-2596-4331-9842-5FE4EB2345EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E0DC8A-60A4-4D6A-8F76-8D7A64207D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="858" xr2:uid="{06D6063F-292D-4EBB-8494-695710908624}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="858" activeTab="1" xr2:uid="{06D6063F-292D-4EBB-8494-695710908624}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="6" r:id="rId1"/>
-    <sheet name="VREprofilesandload2019-2050" sheetId="7" r:id="rId2"/>
-    <sheet name="40weatheryears" sheetId="9" r:id="rId3"/>
-    <sheet name="Powerplants" sheetId="8" r:id="rId4"/>
-    <sheet name="EMLABparameters" sheetId="1" r:id="rId5"/>
-    <sheet name="Exported_Traderes" sheetId="2" r:id="rId6"/>
+    <sheet name="MOSTimportantdata" sheetId="10" r:id="rId2"/>
+    <sheet name="VREprofilesandload2019-2050" sheetId="7" r:id="rId3"/>
+    <sheet name="40weatheryears" sheetId="9" r:id="rId4"/>
+    <sheet name="Powerplants" sheetId="8" r:id="rId5"/>
+    <sheet name="EMLABparameters" sheetId="1" r:id="rId6"/>
+    <sheet name="Exported_Traderes" sheetId="2" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,8 +45,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1B4D8265-D46A-41E8-98E2-719D1BEC16E0}</author>
+  </authors>
+  <commentList>
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{1B4D8265-D46A-41E8-98E2-719D1BEC16E0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Should change to variable costs because RES don’t have efficiency (They are dispatched by capacity factor)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="157">
   <si>
     <t>candidate power plants</t>
   </si>
@@ -143,9 +166,6 @@
   </si>
   <si>
     <t>source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">power plants </t>
   </si>
   <si>
     <t>optimization results or ENTSOE</t>
@@ -478,19 +498,125 @@
   </si>
   <si>
     <t xml:space="preserve">AMIRIS- EMLABpy data Inventory will be constantly updated in https://github.com/TradeRES/toolbox-amiris-emlab/blob/main/data/Readme.xlsx. Each sheet explains further the data of each excel file  The Excel sheets explained here can be found in https://github.com/TradeRES/toolbox-amiris-emlab/blob/main/data/. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial power plants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidate power plants </t>
+  </si>
+  <si>
+    <t>Technologies</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 + growth_rate ^ passed_years) * technology fixed costs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">plant.actualEfficiency * ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>1 - plant.technology.efficiency_modifier_after_lifetime)</t>
+    </r>
+  </si>
+  <si>
+    <t>Energy producers</t>
+  </si>
+  <si>
+    <t>ElectricitySportMarket</t>
+  </si>
+  <si>
+    <t>NOT ACTIVE parameters</t>
+  </si>
+  <si>
+    <t>The user can also define the simulation year at which fuel prices and demand are no longer interpolated, but found through a triangular trend.</t>
+  </si>
+  <si>
+    <t>YearlyTechnologyTargets</t>
+  </si>
+  <si>
+    <t>yearlyCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel prices and the demand increase are interpolated according to an input. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Future fuel prices and demand are estimated with a triangular regression </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="4">
@@ -525,13 +651,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -550,6 +686,2057 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="explanation"/>
+      <sheetName val="dictTech"/>
+      <sheetName val="dictFuel"/>
+      <sheetName val="dictvariables"/>
+      <sheetName val="CapacityMarkets"/>
+      <sheetName val="StrategicReserveOperator"/>
+      <sheetName val="Fuels"/>
+      <sheetName val="FuelPriceTrends"/>
+      <sheetName val="CandidatePowerPlants"/>
+      <sheetName val="TechnologiesEmlab"/>
+      <sheetName val="TechnologyTrends"/>
+      <sheetName val="weatherYears"/>
+      <sheetName val="weatherYears40"/>
+      <sheetName val="EnergyProducers"/>
+      <sheetName val="ElectricitySpotMarkets"/>
+      <sheetName val="TechnologyTargets"/>
+      <sheetName val="YearlyTargets"/>
+      <sheetName val="yearlyCO2"/>
+      <sheetName val="technologyPotentials"/>
+      <sheetName val="Dismantled"/>
+      <sheetName val="StepTrends"/>
+      <sheetName val="EnergyConsumers"/>
+      <sheetName val="yearlytechnologyPotentials2"/>
+      <sheetName val="graphs"/>
+      <sheetName val="CO2DE"/>
+      <sheetName val="backup"/>
+      <sheetName val="sources"/>
+      <sheetName val="NewTechnologies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>WTG_offshore</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Name</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Top</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Max</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Min</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Fuel</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>biomassTrend</v>
+          </cell>
+          <cell r="B2">
+            <v>1.01</v>
+          </cell>
+          <cell r="C2">
+            <v>1.05</v>
+          </cell>
+          <cell r="D2">
+            <v>0.97</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Biomass</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>uraniumTrend</v>
+          </cell>
+          <cell r="B3">
+            <v>1.01</v>
+          </cell>
+          <cell r="C3">
+            <v>1.02</v>
+          </cell>
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Nuclear</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>fuelOilTrend</v>
+          </cell>
+          <cell r="B4">
+            <v>1.01</v>
+          </cell>
+          <cell r="C4">
+            <v>1.04</v>
+          </cell>
+          <cell r="D4">
+            <v>0.96</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Oil</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>hardCoalTrend</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5">
+            <v>1.04</v>
+          </cell>
+          <cell r="D5">
+            <v>0.79</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Coal</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>ligniteCoalTrend</v>
+          </cell>
+          <cell r="B6">
+            <v>1</v>
+          </cell>
+          <cell r="C6">
+            <v>1.02</v>
+          </cell>
+          <cell r="D6">
+            <v>0.98</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Lignite</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>naturalGasTrend</v>
+          </cell>
+          <cell r="B7">
+            <v>1.01</v>
+          </cell>
+          <cell r="C7">
+            <v>1.06</v>
+          </cell>
+          <cell r="D7">
+            <v>0.95</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Natural Gas</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>co2StartingPrice</v>
+          </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>CO2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>derivedGasTrend</v>
+          </cell>
+          <cell r="B9">
+            <v>1.01</v>
+          </cell>
+          <cell r="C9">
+            <v>1.06</v>
+          </cell>
+          <cell r="D9">
+            <v>0.95</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Derived Gas</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>freeTrend</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Rese</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>hydrogenTrend</v>
+          </cell>
+          <cell r="B11">
+            <v>1.02</v>
+          </cell>
+          <cell r="C11">
+            <v>1.03</v>
+          </cell>
+          <cell r="D11">
+            <v>0.98</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Hydrogen</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>demandGrowthTrend</v>
+          </cell>
+          <cell r="B12">
+            <v>1.02</v>
+          </cell>
+          <cell r="C12">
+            <v>1.03</v>
+          </cell>
+          <cell r="D12">
+            <v>0.98</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>Demand</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Realistic_capacity</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>PV_utility_systems</v>
+          </cell>
+          <cell r="D2">
+            <v>350</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>WTG_onshore</v>
+          </cell>
+          <cell r="D3">
+            <v>220</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>hydrogen_turbine</v>
+          </cell>
+          <cell r="D4">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>CCGT</v>
+          </cell>
+          <cell r="D5">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Biomass_CHP_wood_pellets_DH</v>
+          </cell>
+          <cell r="D6">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>WTG_offshore</v>
+          </cell>
+          <cell r="D7">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Lithium_ion_battery</v>
+          </cell>
+          <cell r="D8">
+            <v>100</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>traderes technology</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>expectedPermittime</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>expectedLeadtime</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>lifetime_economic</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>lifetime_technical</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>Intermittent</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>MaximumLifeExtension</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>EfficiencyModifier</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>PeakSegmentDependentAvailability</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>traderesfuels</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Biomass_CHP_wood_pellets_DH</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+          <cell r="D2">
+            <v>3</v>
+          </cell>
+          <cell r="E2">
+            <v>30</v>
+          </cell>
+          <cell r="F2">
+            <v>30</v>
+          </cell>
+          <cell r="G2" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>0.05</v>
+          </cell>
+          <cell r="J2">
+            <v>0.7</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>wood_pellets</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Biomass_CHP_wood_pellets_PH</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3">
+            <v>3</v>
+          </cell>
+          <cell r="E3">
+            <v>20</v>
+          </cell>
+          <cell r="F3">
+            <v>20</v>
+          </cell>
+          <cell r="G3" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
+            <v>0.05</v>
+          </cell>
+          <cell r="J3">
+            <v>0.7</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>processing_residues</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>CCGT</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>2</v>
+          </cell>
+          <cell r="E4">
+            <v>30</v>
+          </cell>
+          <cell r="F4">
+            <v>30</v>
+          </cell>
+          <cell r="G4" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>0.05</v>
+          </cell>
+          <cell r="J4">
+            <v>1</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>natural_gas</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>CCGT_CHP_backpressure_DH</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>2</v>
+          </cell>
+          <cell r="E5">
+            <v>30</v>
+          </cell>
+          <cell r="F5">
+            <v>30</v>
+          </cell>
+          <cell r="G5" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>0.05</v>
+          </cell>
+          <cell r="J5">
+            <v>1</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>natural_gas</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>CCGT_CHP_backpressure_PH</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6">
+            <v>2</v>
+          </cell>
+          <cell r="E6">
+            <v>20</v>
+          </cell>
+          <cell r="F6">
+            <v>20</v>
+          </cell>
+          <cell r="G6" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>0.05</v>
+          </cell>
+          <cell r="J6">
+            <v>1</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>natural_gas</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>CCS</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>2</v>
+          </cell>
+          <cell r="E7">
+            <v>20</v>
+          </cell>
+          <cell r="F7">
+            <v>20</v>
+          </cell>
+          <cell r="G7" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>0.05</v>
+          </cell>
+          <cell r="J7">
+            <v>1</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>hard_coal</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Nuclear</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C8">
+            <v>2</v>
+          </cell>
+          <cell r="D8">
+            <v>5</v>
+          </cell>
+          <cell r="E8">
+            <v>45</v>
+          </cell>
+          <cell r="F8">
+            <v>45</v>
+          </cell>
+          <cell r="G8" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>0.05</v>
+          </cell>
+          <cell r="J8">
+            <v>1</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>nuclear</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>OCGT</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>2</v>
+          </cell>
+          <cell r="E9">
+            <v>30</v>
+          </cell>
+          <cell r="F9">
+            <v>30</v>
+          </cell>
+          <cell r="G9" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>0.05</v>
+          </cell>
+          <cell r="J9">
+            <v>1</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>natural_gas</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Coal PSC</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>4</v>
+          </cell>
+          <cell r="E10">
+            <v>40</v>
+          </cell>
+          <cell r="F10">
+            <v>40</v>
+          </cell>
+          <cell r="G10" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>0.05</v>
+          </cell>
+          <cell r="J10">
+            <v>1</v>
+          </cell>
+          <cell r="K10" t="str">
+            <v>hard_coal</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Lignite PSC</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C11">
+            <v>1</v>
+          </cell>
+          <cell r="D11">
+            <v>5</v>
+          </cell>
+          <cell r="E11">
+            <v>40</v>
+          </cell>
+          <cell r="F11">
+            <v>40</v>
+          </cell>
+          <cell r="G11" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>0.05</v>
+          </cell>
+          <cell r="J11">
+            <v>1</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>lignite</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Fuel oil PGT</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C12">
+            <v>1</v>
+          </cell>
+          <cell r="D12">
+            <v>1</v>
+          </cell>
+          <cell r="E12">
+            <v>25</v>
+          </cell>
+          <cell r="F12">
+            <v>25</v>
+          </cell>
+          <cell r="G12" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H12">
+            <v>0</v>
+          </cell>
+          <cell r="I12">
+            <v>0.05</v>
+          </cell>
+          <cell r="J12">
+            <v>1</v>
+          </cell>
+          <cell r="K12" t="str">
+            <v>heavy_oil</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Lithium_ion_battery</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>StorageTrader</v>
+          </cell>
+          <cell r="C13">
+            <v>1</v>
+          </cell>
+          <cell r="D13">
+            <v>1</v>
+          </cell>
+          <cell r="E13">
+            <v>20</v>
+          </cell>
+          <cell r="F13">
+            <v>20</v>
+          </cell>
+          <cell r="G13" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H13">
+            <v>0</v>
+          </cell>
+          <cell r="I13">
+            <v>0.05</v>
+          </cell>
+          <cell r="J13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Pumped_hydro</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>StorageTrader</v>
+          </cell>
+          <cell r="C14">
+            <v>3</v>
+          </cell>
+          <cell r="D14">
+            <v>4</v>
+          </cell>
+          <cell r="E14">
+            <v>100</v>
+          </cell>
+          <cell r="F14">
+            <v>100</v>
+          </cell>
+          <cell r="G14" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>0.05</v>
+          </cell>
+          <cell r="J14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>WTG_offshore</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>VariableRenewableOperator</v>
+          </cell>
+          <cell r="C15">
+            <v>1</v>
+          </cell>
+          <cell r="D15">
+            <v>2</v>
+          </cell>
+          <cell r="E15">
+            <v>30</v>
+          </cell>
+          <cell r="F15">
+            <v>30</v>
+          </cell>
+          <cell r="G15" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>0.05</v>
+          </cell>
+          <cell r="J15">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>WTG_onshore</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>VariableRenewableOperator</v>
+          </cell>
+          <cell r="C16">
+            <v>1</v>
+          </cell>
+          <cell r="D16">
+            <v>1</v>
+          </cell>
+          <cell r="E16">
+            <v>25</v>
+          </cell>
+          <cell r="F16">
+            <v>25</v>
+          </cell>
+          <cell r="G16" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="H16">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>0.05</v>
+          </cell>
+          <cell r="J16">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>PV_utility_systems</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>VariableRenewableOperator</v>
+          </cell>
+          <cell r="C17">
+            <v>1</v>
+          </cell>
+          <cell r="D17">
+            <v>1</v>
+          </cell>
+          <cell r="E17">
+            <v>25</v>
+          </cell>
+          <cell r="F17">
+            <v>25</v>
+          </cell>
+          <cell r="G17" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>0.05</v>
+          </cell>
+          <cell r="J17">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Hydropower_reservoir_medium</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>VariableRenewableOperator</v>
+          </cell>
+          <cell r="C18">
+            <v>2</v>
+          </cell>
+          <cell r="D18">
+            <v>5</v>
+          </cell>
+          <cell r="E18">
+            <v>60</v>
+          </cell>
+          <cell r="F18">
+            <v>60</v>
+          </cell>
+          <cell r="G18" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>0.05</v>
+          </cell>
+          <cell r="J18">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>hydrogen_turbine</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C19">
+            <v>2</v>
+          </cell>
+          <cell r="D19">
+            <v>2</v>
+          </cell>
+          <cell r="E19">
+            <v>30</v>
+          </cell>
+          <cell r="F19">
+            <v>30</v>
+          </cell>
+          <cell r="G19" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H19">
+            <v>0</v>
+          </cell>
+          <cell r="I19">
+            <v>0.05</v>
+          </cell>
+          <cell r="J19">
+            <v>1</v>
+          </cell>
+          <cell r="K19" t="str">
+            <v>hydrogen</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>hydrogen_CHP</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C20">
+            <v>2</v>
+          </cell>
+          <cell r="D20">
+            <v>2</v>
+          </cell>
+          <cell r="E20">
+            <v>30</v>
+          </cell>
+          <cell r="F20">
+            <v>30</v>
+          </cell>
+          <cell r="G20" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H20">
+            <v>0</v>
+          </cell>
+          <cell r="I20">
+            <v>0.05</v>
+          </cell>
+          <cell r="J20">
+            <v>1</v>
+          </cell>
+          <cell r="K20" t="str">
+            <v>hydrogen</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>hydrogen_combined_cycle</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C21">
+            <v>2</v>
+          </cell>
+          <cell r="D21">
+            <v>2</v>
+          </cell>
+          <cell r="E21">
+            <v>30</v>
+          </cell>
+          <cell r="F21">
+            <v>30</v>
+          </cell>
+          <cell r="G21" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="H21">
+            <v>0</v>
+          </cell>
+          <cell r="I21">
+            <v>0.05</v>
+          </cell>
+          <cell r="J21">
+            <v>1</v>
+          </cell>
+          <cell r="K21" t="str">
+            <v>hydrogen</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Name</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>investorMarket</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>priceMarkUp</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>willingToInvest</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>downpaymentFractionOfCash</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>dismantlingRequiredOperatingProfit</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>debtRatioOfInvestments</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>loanInterestRate</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>equityInterestRate</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>longTermContractPastTimeHorizon</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>longTermContractMargin</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>ProducerDE</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>GermanElectricitySpotMarket</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="E2">
+            <v>0.5</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0.7</v>
+          </cell>
+          <cell r="H2">
+            <v>0.1</v>
+          </cell>
+          <cell r="I2">
+            <v>0.1</v>
+          </cell>
+          <cell r="J2">
+            <v>3</v>
+          </cell>
+          <cell r="K2">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>ProducerNL</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>DutchElectricitySpotMarket</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="E3">
+            <v>0.5</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0.7</v>
+          </cell>
+          <cell r="H3">
+            <v>0.1</v>
+          </cell>
+          <cell r="I3">
+            <v>0.1</v>
+          </cell>
+          <cell r="J3">
+            <v>3</v>
+          </cell>
+          <cell r="K3">
+            <v>0.1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Name</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>valueOfLostLoad</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>growthTrend</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>country</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>GermanElectricitySpotMarket</v>
+          </cell>
+          <cell r="B2">
+            <v>4000</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>demandGrowthTrend</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>DE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>DutchElectricitySpotMarket</v>
+          </cell>
+          <cell r="B3">
+            <v>4000</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>demandGrowthTrend</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>NL</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>year</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>yearlytargetNL_windonshore</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>yearlytargetNL_windoffshore</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>yearlytargetNL_PV</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>2019</v>
+          </cell>
+          <cell r="B2">
+            <v>290.54545454545456</v>
+          </cell>
+          <cell r="C2">
+            <v>1821.6363636363637</v>
+          </cell>
+          <cell r="D2">
+            <v>1724.3181818181799</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2020</v>
+          </cell>
+          <cell r="B3">
+            <v>290.54545454545456</v>
+          </cell>
+          <cell r="C3">
+            <v>1821.6363636363637</v>
+          </cell>
+          <cell r="D3">
+            <v>1724.3181818181818</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2021</v>
+          </cell>
+          <cell r="B4">
+            <v>290.54545454545456</v>
+          </cell>
+          <cell r="C4">
+            <v>1821.6363636363637</v>
+          </cell>
+          <cell r="D4">
+            <v>1724.3181818181818</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2022</v>
+          </cell>
+          <cell r="B5">
+            <v>290.54545454545456</v>
+          </cell>
+          <cell r="C5">
+            <v>1821.6363636363637</v>
+          </cell>
+          <cell r="D5">
+            <v>1724.3181818181818</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>2023</v>
+          </cell>
+          <cell r="B6">
+            <v>290.54545454545456</v>
+          </cell>
+          <cell r="C6">
+            <v>1821.6363636363637</v>
+          </cell>
+          <cell r="D6">
+            <v>1724.3181818181818</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2024</v>
+          </cell>
+          <cell r="B7">
+            <v>290.54545454545456</v>
+          </cell>
+          <cell r="C7">
+            <v>1821.6363636363637</v>
+          </cell>
+          <cell r="D7">
+            <v>1724.3181818181818</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>2025</v>
+          </cell>
+          <cell r="B8">
+            <v>290.54545454545456</v>
+          </cell>
+          <cell r="C8">
+            <v>1821.6363636363637</v>
+          </cell>
+          <cell r="D8">
+            <v>1724.3181818181818</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>2026</v>
+          </cell>
+          <cell r="B9">
+            <v>290.54545454545456</v>
+          </cell>
+          <cell r="C9">
+            <v>1821.6363636363637</v>
+          </cell>
+          <cell r="D9">
+            <v>1724.3181818181818</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>2027</v>
+          </cell>
+          <cell r="B10">
+            <v>290.54545454545456</v>
+          </cell>
+          <cell r="C10">
+            <v>1821.6363636363637</v>
+          </cell>
+          <cell r="D10">
+            <v>1724.3181818181818</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2028</v>
+          </cell>
+          <cell r="B11">
+            <v>290.54545454545456</v>
+          </cell>
+          <cell r="C11">
+            <v>1821.6363636363637</v>
+          </cell>
+          <cell r="D11">
+            <v>1724.3181818181818</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>2029</v>
+          </cell>
+          <cell r="B12">
+            <v>290.54545454545456</v>
+          </cell>
+          <cell r="C12">
+            <v>1821.6363636363637</v>
+          </cell>
+          <cell r="D12">
+            <v>1724.3181818181818</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>2030</v>
+          </cell>
+          <cell r="B13">
+            <v>228.4</v>
+          </cell>
+          <cell r="C13">
+            <v>2450</v>
+          </cell>
+          <cell r="D13">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>2031</v>
+          </cell>
+          <cell r="B14">
+            <v>228.4</v>
+          </cell>
+          <cell r="C14">
+            <v>2450</v>
+          </cell>
+          <cell r="D14">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>2032</v>
+          </cell>
+          <cell r="B15">
+            <v>228.4</v>
+          </cell>
+          <cell r="C15">
+            <v>2450</v>
+          </cell>
+          <cell r="D15">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>2033</v>
+          </cell>
+          <cell r="B16">
+            <v>228.4</v>
+          </cell>
+          <cell r="C16">
+            <v>2450</v>
+          </cell>
+          <cell r="D16">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>2034</v>
+          </cell>
+          <cell r="B17">
+            <v>228.4</v>
+          </cell>
+          <cell r="C17">
+            <v>2450</v>
+          </cell>
+          <cell r="D17">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2035</v>
+          </cell>
+          <cell r="B18">
+            <v>228.4</v>
+          </cell>
+          <cell r="C18">
+            <v>2450</v>
+          </cell>
+          <cell r="D18">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2036</v>
+          </cell>
+          <cell r="B19">
+            <v>228.4</v>
+          </cell>
+          <cell r="C19">
+            <v>2450</v>
+          </cell>
+          <cell r="D19">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2037</v>
+          </cell>
+          <cell r="B20">
+            <v>228.4</v>
+          </cell>
+          <cell r="C20">
+            <v>2450</v>
+          </cell>
+          <cell r="D20">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2038</v>
+          </cell>
+          <cell r="B21">
+            <v>228.4</v>
+          </cell>
+          <cell r="C21">
+            <v>2450</v>
+          </cell>
+          <cell r="D21">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2039</v>
+          </cell>
+          <cell r="B22">
+            <v>228.4</v>
+          </cell>
+          <cell r="C22">
+            <v>2450</v>
+          </cell>
+          <cell r="D22">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>2040</v>
+          </cell>
+          <cell r="B23">
+            <v>228.4</v>
+          </cell>
+          <cell r="C23">
+            <v>2450</v>
+          </cell>
+          <cell r="D23">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>2041</v>
+          </cell>
+          <cell r="B24">
+            <v>228.4</v>
+          </cell>
+          <cell r="C24">
+            <v>2450</v>
+          </cell>
+          <cell r="D24">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>2042</v>
+          </cell>
+          <cell r="B25">
+            <v>228.4</v>
+          </cell>
+          <cell r="C25">
+            <v>2450</v>
+          </cell>
+          <cell r="D25">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>2043</v>
+          </cell>
+          <cell r="B26">
+            <v>228.4</v>
+          </cell>
+          <cell r="C26">
+            <v>2450</v>
+          </cell>
+          <cell r="D26">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>2044</v>
+          </cell>
+          <cell r="B27">
+            <v>228.4</v>
+          </cell>
+          <cell r="C27">
+            <v>2450</v>
+          </cell>
+          <cell r="D27">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>2045</v>
+          </cell>
+          <cell r="B28">
+            <v>228.4</v>
+          </cell>
+          <cell r="C28">
+            <v>2450</v>
+          </cell>
+          <cell r="D28">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>2046</v>
+          </cell>
+          <cell r="B29">
+            <v>228.4</v>
+          </cell>
+          <cell r="C29">
+            <v>2450</v>
+          </cell>
+          <cell r="D29">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>2047</v>
+          </cell>
+          <cell r="B30">
+            <v>228.4</v>
+          </cell>
+          <cell r="C30">
+            <v>2450</v>
+          </cell>
+          <cell r="D30">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>2048</v>
+          </cell>
+          <cell r="B31">
+            <v>228.4</v>
+          </cell>
+          <cell r="C31">
+            <v>2450</v>
+          </cell>
+          <cell r="D31">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>2049</v>
+          </cell>
+          <cell r="B32">
+            <v>228.4</v>
+          </cell>
+          <cell r="C32">
+            <v>2450</v>
+          </cell>
+          <cell r="D32">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>2050</v>
+          </cell>
+          <cell r="B33">
+            <v>228.4</v>
+          </cell>
+          <cell r="C33">
+            <v>2450</v>
+          </cell>
+          <cell r="D33">
+            <v>3298.8249999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>year</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>NL</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>2010</v>
+          </cell>
+          <cell r="B2">
+            <v>14.3538679245283</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2011</v>
+          </cell>
+          <cell r="B3">
+            <v>13.2143027888446</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2012</v>
+          </cell>
+          <cell r="B4">
+            <v>7.4974103585657303</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2013</v>
+          </cell>
+          <cell r="B5">
+            <v>4.9400000000000004</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>2014</v>
+          </cell>
+          <cell r="B6">
+            <v>9.5500000000000007</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2015</v>
+          </cell>
+          <cell r="B7">
+            <v>18.079999999999998</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>2016</v>
+          </cell>
+          <cell r="B8">
+            <v>18.079999999999998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>2017</v>
+          </cell>
+          <cell r="B9">
+            <v>18.079999999999998</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>2018</v>
+          </cell>
+          <cell r="B10">
+            <v>18.079999999999998</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2019</v>
+          </cell>
+          <cell r="B11">
+            <v>21.7845449890137</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>2020</v>
+          </cell>
+          <cell r="B12">
+            <v>21.732001069450401</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>2021</v>
+          </cell>
+          <cell r="B13">
+            <v>45.310069289016702</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>2022</v>
+          </cell>
+          <cell r="B14">
+            <v>63.1633059127807</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>2023</v>
+          </cell>
+          <cell r="B15">
+            <v>66.373634433746304</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>2024</v>
+          </cell>
+          <cell r="B16">
+            <v>69.664229811859101</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>2025</v>
+          </cell>
+          <cell r="B17">
+            <v>73.115337734985303</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2026</v>
+          </cell>
+          <cell r="B18">
+            <v>76.807218003845193</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2027</v>
+          </cell>
+          <cell r="B19">
+            <v>80.659617874145496</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2028</v>
+          </cell>
+          <cell r="B20">
+            <v>84.672537345886198</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2029</v>
+          </cell>
+          <cell r="B21">
+            <v>88.926222106933594</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2030</v>
+          </cell>
+          <cell r="B22">
+            <v>93.340433525848397</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>2031</v>
+          </cell>
+          <cell r="B23">
+            <v>97.995417290496803</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>2032</v>
+          </cell>
+          <cell r="B24">
+            <v>102.891173400879</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>2033</v>
+          </cell>
+          <cell r="B25">
+            <v>108.107968714142</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>2034</v>
+          </cell>
+          <cell r="B26">
+            <v>113.485276572418</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>2035</v>
+          </cell>
+          <cell r="B27">
+            <v>119.183616577148</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>2036</v>
+          </cell>
+          <cell r="B28">
+            <v>125.122728927612</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>2037</v>
+          </cell>
+          <cell r="B29">
+            <v>131.382880480957</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>2038</v>
+          </cell>
+          <cell r="B30">
+            <v>137.964057124329</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>2039</v>
+          </cell>
+          <cell r="B31">
+            <v>144.86627297058101</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>2040</v>
+          </cell>
+          <cell r="B32">
+            <v>152.08952801971401</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>2041</v>
+          </cell>
+          <cell r="B33">
+            <v>154.87831521398357</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>2042</v>
+          </cell>
+          <cell r="B34">
+            <v>160.36718818841777</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>2043</v>
+          </cell>
+          <cell r="B35">
+            <v>165.85606116285197</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>2044</v>
+          </cell>
+          <cell r="B36">
+            <v>171.34493413728617</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>2045</v>
+          </cell>
+          <cell r="B37">
+            <v>176.83380711172035</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>2046</v>
+          </cell>
+          <cell r="B38">
+            <v>182.32268008615455</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>2047</v>
+          </cell>
+          <cell r="B39">
+            <v>187.81155306058875</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>2048</v>
+          </cell>
+          <cell r="B40">
+            <v>193.30042603502292</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>2049</v>
+          </cell>
+          <cell r="B41">
+            <v>198.78929900945712</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>2050</v>
+          </cell>
+          <cell r="B42">
+            <v>204.27817198389133</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>2051</v>
+          </cell>
+          <cell r="B43">
+            <v>209.76704495832553</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>2052</v>
+          </cell>
+          <cell r="B44">
+            <v>215.25591793275973</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>2053</v>
+          </cell>
+          <cell r="B45">
+            <v>220.7447909071939</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>2054</v>
+          </cell>
+          <cell r="B46">
+            <v>226.2336638816281</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ingrid Sanchez Jimenez" id="{B8D9AC74-4AD1-4775-B6DD-2C12B6BBD8EB}" userId="S::isanchezjimene@tudelft.nl::cc90341c-89c3-4988-92a9-0175758ccb6e" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,15 +3034,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J16" dT="2023-03-23T18:21:57.35" personId="{B8D9AC74-4AD1-4775-B6DD-2C12B6BBD8EB}" id="{1B4D8265-D46A-41E8-98E2-719D1BEC16E0}">
+    <text>Should change to variable costs because RES don’t have efficiency (They are dispatched by capacity factor)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F790EBA3-A754-4E2E-8255-86BE883EA028}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.26953125" style="1" customWidth="1"/>
@@ -868,22 +3063,22 @@
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="45.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -898,12 +3093,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -915,35 +3110,35 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -952,35 +3147,35 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
@@ -989,18 +3184,18 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1009,67 +3204,67 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1081,6 +3276,2790 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193A152B-FECD-46CA-97B9-649A4237FC92}">
+  <dimension ref="A1:M152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="10" max="10" width="28.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" t="str">
+        <f>[1]CandidatePowerPlants!B1</f>
+        <v>Technology</v>
+      </c>
+      <c r="C2" t="str">
+        <f>[1]CandidatePowerPlants!D1</f>
+        <v>Realistic_capacity</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" t="str">
+        <f>[1]CandidatePowerPlants!B2</f>
+        <v>PV_utility_systems</v>
+      </c>
+      <c r="C3">
+        <f>[1]CandidatePowerPlants!D2</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" t="str">
+        <f>[1]CandidatePowerPlants!B3</f>
+        <v>WTG_onshore</v>
+      </c>
+      <c r="C4">
+        <f>[1]CandidatePowerPlants!D3</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" t="str">
+        <f>[1]CandidatePowerPlants!B4</f>
+        <v>hydrogen_turbine</v>
+      </c>
+      <c r="C5">
+        <f>[1]CandidatePowerPlants!D4</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" t="str">
+        <f>[1]CandidatePowerPlants!B5</f>
+        <v>CCGT</v>
+      </c>
+      <c r="C6">
+        <f>[1]CandidatePowerPlants!D5</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" t="str">
+        <f>[1]CandidatePowerPlants!B6</f>
+        <v>Biomass_CHP_wood_pellets_DH</v>
+      </c>
+      <c r="C7">
+        <f>[1]CandidatePowerPlants!D6</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" t="str">
+        <f>[1]CandidatePowerPlants!B7</f>
+        <v>WTG_offshore</v>
+      </c>
+      <c r="C8">
+        <f>[1]CandidatePowerPlants!D7</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" t="str">
+        <f>[1]CandidatePowerPlants!B8</f>
+        <v>Lithium_ion_battery</v>
+      </c>
+      <c r="C9">
+        <f>[1]CandidatePowerPlants!D8</f>
+        <v>100</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="J11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="J12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="J13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="J14" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" t="str">
+        <f>[1]TechnologiesEmlab!A1</f>
+        <v>traderes technology</v>
+      </c>
+      <c r="C16" t="str">
+        <f>[1]TechnologiesEmlab!B1</f>
+        <v>type</v>
+      </c>
+      <c r="D16" t="str">
+        <f>[1]TechnologiesEmlab!C1</f>
+        <v>expectedPermittime</v>
+      </c>
+      <c r="E16" t="str">
+        <f>[1]TechnologiesEmlab!D1</f>
+        <v>expectedLeadtime</v>
+      </c>
+      <c r="F16" t="str">
+        <f>[1]TechnologiesEmlab!E1</f>
+        <v>lifetime_economic</v>
+      </c>
+      <c r="G16" t="str">
+        <f>[1]TechnologiesEmlab!F1</f>
+        <v>lifetime_technical</v>
+      </c>
+      <c r="H16" t="str">
+        <f>[1]TechnologiesEmlab!G1</f>
+        <v>Intermittent</v>
+      </c>
+      <c r="I16" t="str">
+        <f>[1]TechnologiesEmlab!H1</f>
+        <v>MaximumLifeExtension</v>
+      </c>
+      <c r="J16" t="str">
+        <f>[1]TechnologiesEmlab!I1</f>
+        <v>EfficiencyModifier</v>
+      </c>
+      <c r="K16" t="str">
+        <f>[1]TechnologiesEmlab!J1</f>
+        <v>PeakSegmentDependentAvailability</v>
+      </c>
+      <c r="L16" t="str">
+        <f>[1]TechnologiesEmlab!K1</f>
+        <v>traderesfuels</v>
+      </c>
+      <c r="M16">
+        <f>[1]TechnologiesEmlab!L1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" t="str">
+        <f>[1]TechnologiesEmlab!A2</f>
+        <v>Biomass_CHP_wood_pellets_DH</v>
+      </c>
+      <c r="C17" t="str">
+        <f>[1]TechnologiesEmlab!B2</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D17">
+        <f>[1]TechnologiesEmlab!C2</f>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>[1]TechnologiesEmlab!D2</f>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f>[1]TechnologiesEmlab!E2</f>
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <f>[1]TechnologiesEmlab!F2</f>
+        <v>30</v>
+      </c>
+      <c r="H17" t="b">
+        <f>[1]TechnologiesEmlab!G2</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>[1]TechnologiesEmlab!H2</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>[1]TechnologiesEmlab!I2</f>
+        <v>0.05</v>
+      </c>
+      <c r="K17">
+        <f>[1]TechnologiesEmlab!J2</f>
+        <v>0.7</v>
+      </c>
+      <c r="L17" t="str">
+        <f>[1]TechnologiesEmlab!K2</f>
+        <v>wood_pellets</v>
+      </c>
+      <c r="M17">
+        <f>[1]TechnologiesEmlab!L2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" t="str">
+        <f>[1]TechnologiesEmlab!A3</f>
+        <v>Biomass_CHP_wood_pellets_PH</v>
+      </c>
+      <c r="C18" t="str">
+        <f>[1]TechnologiesEmlab!B3</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D18">
+        <f>[1]TechnologiesEmlab!C3</f>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f>[1]TechnologiesEmlab!D3</f>
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f>[1]TechnologiesEmlab!E3</f>
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <f>[1]TechnologiesEmlab!F3</f>
+        <v>20</v>
+      </c>
+      <c r="H18" t="b">
+        <f>[1]TechnologiesEmlab!G3</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>[1]TechnologiesEmlab!H3</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>[1]TechnologiesEmlab!I3</f>
+        <v>0.05</v>
+      </c>
+      <c r="K18">
+        <f>[1]TechnologiesEmlab!J3</f>
+        <v>0.7</v>
+      </c>
+      <c r="L18" t="str">
+        <f>[1]TechnologiesEmlab!K3</f>
+        <v>processing_residues</v>
+      </c>
+      <c r="M18">
+        <f>[1]TechnologiesEmlab!L3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" t="str">
+        <f>[1]TechnologiesEmlab!A4</f>
+        <v>CCGT</v>
+      </c>
+      <c r="C19" t="str">
+        <f>[1]TechnologiesEmlab!B4</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D19">
+        <f>[1]TechnologiesEmlab!C4</f>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f>[1]TechnologiesEmlab!D4</f>
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <f>[1]TechnologiesEmlab!E4</f>
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <f>[1]TechnologiesEmlab!F4</f>
+        <v>30</v>
+      </c>
+      <c r="H19" t="b">
+        <f>[1]TechnologiesEmlab!G4</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>[1]TechnologiesEmlab!H4</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>[1]TechnologiesEmlab!I4</f>
+        <v>0.05</v>
+      </c>
+      <c r="K19">
+        <f>[1]TechnologiesEmlab!J4</f>
+        <v>1</v>
+      </c>
+      <c r="L19" t="str">
+        <f>[1]TechnologiesEmlab!K4</f>
+        <v>natural_gas</v>
+      </c>
+      <c r="M19">
+        <f>[1]TechnologiesEmlab!L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" t="str">
+        <f>[1]TechnologiesEmlab!A5</f>
+        <v>CCGT_CHP_backpressure_DH</v>
+      </c>
+      <c r="C20" t="str">
+        <f>[1]TechnologiesEmlab!B5</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D20">
+        <f>[1]TechnologiesEmlab!C5</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>[1]TechnologiesEmlab!D5</f>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f>[1]TechnologiesEmlab!E5</f>
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <f>[1]TechnologiesEmlab!F5</f>
+        <v>30</v>
+      </c>
+      <c r="H20" t="b">
+        <f>[1]TechnologiesEmlab!G5</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>[1]TechnologiesEmlab!H5</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>[1]TechnologiesEmlab!I5</f>
+        <v>0.05</v>
+      </c>
+      <c r="K20">
+        <f>[1]TechnologiesEmlab!J5</f>
+        <v>1</v>
+      </c>
+      <c r="L20" t="str">
+        <f>[1]TechnologiesEmlab!K5</f>
+        <v>natural_gas</v>
+      </c>
+      <c r="M20">
+        <f>[1]TechnologiesEmlab!L5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" t="str">
+        <f>[1]TechnologiesEmlab!A6</f>
+        <v>CCGT_CHP_backpressure_PH</v>
+      </c>
+      <c r="C21" t="str">
+        <f>[1]TechnologiesEmlab!B6</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D21">
+        <f>[1]TechnologiesEmlab!C6</f>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f>[1]TechnologiesEmlab!D6</f>
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f>[1]TechnologiesEmlab!E6</f>
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <f>[1]TechnologiesEmlab!F6</f>
+        <v>20</v>
+      </c>
+      <c r="H21" t="b">
+        <f>[1]TechnologiesEmlab!G6</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>[1]TechnologiesEmlab!H6</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>[1]TechnologiesEmlab!I6</f>
+        <v>0.05</v>
+      </c>
+      <c r="K21">
+        <f>[1]TechnologiesEmlab!J6</f>
+        <v>1</v>
+      </c>
+      <c r="L21" t="str">
+        <f>[1]TechnologiesEmlab!K6</f>
+        <v>natural_gas</v>
+      </c>
+      <c r="M21">
+        <f>[1]TechnologiesEmlab!L6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" t="str">
+        <f>[1]TechnologiesEmlab!A7</f>
+        <v>CCS</v>
+      </c>
+      <c r="C22" t="str">
+        <f>[1]TechnologiesEmlab!B7</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D22">
+        <f>[1]TechnologiesEmlab!C7</f>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>[1]TechnologiesEmlab!D7</f>
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <f>[1]TechnologiesEmlab!E7</f>
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <f>[1]TechnologiesEmlab!F7</f>
+        <v>20</v>
+      </c>
+      <c r="H22" t="b">
+        <f>[1]TechnologiesEmlab!G7</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>[1]TechnologiesEmlab!H7</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>[1]TechnologiesEmlab!I7</f>
+        <v>0.05</v>
+      </c>
+      <c r="K22">
+        <f>[1]TechnologiesEmlab!J7</f>
+        <v>1</v>
+      </c>
+      <c r="L22" t="str">
+        <f>[1]TechnologiesEmlab!K7</f>
+        <v>hard_coal</v>
+      </c>
+      <c r="M22">
+        <f>[1]TechnologiesEmlab!L7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" t="str">
+        <f>[1]TechnologiesEmlab!A8</f>
+        <v>Nuclear</v>
+      </c>
+      <c r="C23" t="str">
+        <f>[1]TechnologiesEmlab!B8</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D23">
+        <f>[1]TechnologiesEmlab!C8</f>
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f>[1]TechnologiesEmlab!D8</f>
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <f>[1]TechnologiesEmlab!E8</f>
+        <v>45</v>
+      </c>
+      <c r="G23">
+        <f>[1]TechnologiesEmlab!F8</f>
+        <v>45</v>
+      </c>
+      <c r="H23" t="b">
+        <f>[1]TechnologiesEmlab!G8</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>[1]TechnologiesEmlab!H8</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>[1]TechnologiesEmlab!I8</f>
+        <v>0.05</v>
+      </c>
+      <c r="K23">
+        <f>[1]TechnologiesEmlab!J8</f>
+        <v>1</v>
+      </c>
+      <c r="L23" t="str">
+        <f>[1]TechnologiesEmlab!K8</f>
+        <v>nuclear</v>
+      </c>
+      <c r="M23">
+        <f>[1]TechnologiesEmlab!L8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" t="str">
+        <f>[1]TechnologiesEmlab!A9</f>
+        <v>OCGT</v>
+      </c>
+      <c r="C24" t="str">
+        <f>[1]TechnologiesEmlab!B9</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D24">
+        <f>[1]TechnologiesEmlab!C9</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f>[1]TechnologiesEmlab!D9</f>
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f>[1]TechnologiesEmlab!E9</f>
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <f>[1]TechnologiesEmlab!F9</f>
+        <v>30</v>
+      </c>
+      <c r="H24" t="b">
+        <f>[1]TechnologiesEmlab!G9</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>[1]TechnologiesEmlab!H9</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>[1]TechnologiesEmlab!I9</f>
+        <v>0.05</v>
+      </c>
+      <c r="K24">
+        <f>[1]TechnologiesEmlab!J9</f>
+        <v>1</v>
+      </c>
+      <c r="L24" t="str">
+        <f>[1]TechnologiesEmlab!K9</f>
+        <v>natural_gas</v>
+      </c>
+      <c r="M24">
+        <f>[1]TechnologiesEmlab!L9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" t="str">
+        <f>[1]TechnologiesEmlab!A10</f>
+        <v>Coal PSC</v>
+      </c>
+      <c r="C25" t="str">
+        <f>[1]TechnologiesEmlab!B10</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D25">
+        <f>[1]TechnologiesEmlab!C10</f>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f>[1]TechnologiesEmlab!D10</f>
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <f>[1]TechnologiesEmlab!E10</f>
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <f>[1]TechnologiesEmlab!F10</f>
+        <v>40</v>
+      </c>
+      <c r="H25" t="b">
+        <f>[1]TechnologiesEmlab!G10</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>[1]TechnologiesEmlab!H10</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>[1]TechnologiesEmlab!I10</f>
+        <v>0.05</v>
+      </c>
+      <c r="K25">
+        <f>[1]TechnologiesEmlab!J10</f>
+        <v>1</v>
+      </c>
+      <c r="L25" t="str">
+        <f>[1]TechnologiesEmlab!K10</f>
+        <v>hard_coal</v>
+      </c>
+      <c r="M25">
+        <f>[1]TechnologiesEmlab!L10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" t="str">
+        <f>[1]TechnologiesEmlab!A11</f>
+        <v>Lignite PSC</v>
+      </c>
+      <c r="C26" t="str">
+        <f>[1]TechnologiesEmlab!B11</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D26">
+        <f>[1]TechnologiesEmlab!C11</f>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f>[1]TechnologiesEmlab!D11</f>
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <f>[1]TechnologiesEmlab!E11</f>
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <f>[1]TechnologiesEmlab!F11</f>
+        <v>40</v>
+      </c>
+      <c r="H26" t="b">
+        <f>[1]TechnologiesEmlab!G11</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>[1]TechnologiesEmlab!H11</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>[1]TechnologiesEmlab!I11</f>
+        <v>0.05</v>
+      </c>
+      <c r="K26">
+        <f>[1]TechnologiesEmlab!J11</f>
+        <v>1</v>
+      </c>
+      <c r="L26" t="str">
+        <f>[1]TechnologiesEmlab!K11</f>
+        <v>lignite</v>
+      </c>
+      <c r="M26">
+        <f>[1]TechnologiesEmlab!L11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" t="str">
+        <f>[1]TechnologiesEmlab!A12</f>
+        <v>Fuel oil PGT</v>
+      </c>
+      <c r="C27" t="str">
+        <f>[1]TechnologiesEmlab!B12</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D27">
+        <f>[1]TechnologiesEmlab!C12</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f>[1]TechnologiesEmlab!D12</f>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f>[1]TechnologiesEmlab!E12</f>
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <f>[1]TechnologiesEmlab!F12</f>
+        <v>25</v>
+      </c>
+      <c r="H27" t="b">
+        <f>[1]TechnologiesEmlab!G12</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>[1]TechnologiesEmlab!H12</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>[1]TechnologiesEmlab!I12</f>
+        <v>0.05</v>
+      </c>
+      <c r="K27">
+        <f>[1]TechnologiesEmlab!J12</f>
+        <v>1</v>
+      </c>
+      <c r="L27" t="str">
+        <f>[1]TechnologiesEmlab!K12</f>
+        <v>heavy_oil</v>
+      </c>
+      <c r="M27">
+        <f>[1]TechnologiesEmlab!L12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" t="str">
+        <f>[1]TechnologiesEmlab!A13</f>
+        <v>Lithium_ion_battery</v>
+      </c>
+      <c r="C28" t="str">
+        <f>[1]TechnologiesEmlab!B13</f>
+        <v>StorageTrader</v>
+      </c>
+      <c r="D28">
+        <f>[1]TechnologiesEmlab!C13</f>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f>[1]TechnologiesEmlab!D13</f>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f>[1]TechnologiesEmlab!E13</f>
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <f>[1]TechnologiesEmlab!F13</f>
+        <v>20</v>
+      </c>
+      <c r="H28" t="b">
+        <f>[1]TechnologiesEmlab!G13</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>[1]TechnologiesEmlab!H13</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>[1]TechnologiesEmlab!I13</f>
+        <v>0.05</v>
+      </c>
+      <c r="K28">
+        <f>[1]TechnologiesEmlab!J13</f>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f>[1]TechnologiesEmlab!K13</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>[1]TechnologiesEmlab!L13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" t="str">
+        <f>[1]TechnologiesEmlab!A14</f>
+        <v>Pumped_hydro</v>
+      </c>
+      <c r="C29" t="str">
+        <f>[1]TechnologiesEmlab!B14</f>
+        <v>StorageTrader</v>
+      </c>
+      <c r="D29">
+        <f>[1]TechnologiesEmlab!C14</f>
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <f>[1]TechnologiesEmlab!D14</f>
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f>[1]TechnologiesEmlab!E14</f>
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <f>[1]TechnologiesEmlab!F14</f>
+        <v>100</v>
+      </c>
+      <c r="H29" t="b">
+        <f>[1]TechnologiesEmlab!G14</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>[1]TechnologiesEmlab!H14</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>[1]TechnologiesEmlab!I14</f>
+        <v>0.05</v>
+      </c>
+      <c r="K29">
+        <f>[1]TechnologiesEmlab!J14</f>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f>[1]TechnologiesEmlab!K14</f>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f>[1]TechnologiesEmlab!L14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" t="str">
+        <f>[1]TechnologiesEmlab!A15</f>
+        <v>WTG_offshore</v>
+      </c>
+      <c r="C30" t="str">
+        <f>[1]TechnologiesEmlab!B15</f>
+        <v>VariableRenewableOperator</v>
+      </c>
+      <c r="D30">
+        <f>[1]TechnologiesEmlab!C15</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f>[1]TechnologiesEmlab!D15</f>
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <f>[1]TechnologiesEmlab!E15</f>
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <f>[1]TechnologiesEmlab!F15</f>
+        <v>30</v>
+      </c>
+      <c r="H30" t="b">
+        <f>[1]TechnologiesEmlab!G15</f>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f>[1]TechnologiesEmlab!H15</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>[1]TechnologiesEmlab!I15</f>
+        <v>0.05</v>
+      </c>
+      <c r="K30">
+        <f>[1]TechnologiesEmlab!J15</f>
+        <v>0.08</v>
+      </c>
+      <c r="L30">
+        <f>[1]TechnologiesEmlab!K15</f>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f>[1]TechnologiesEmlab!L15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" t="str">
+        <f>[1]TechnologiesEmlab!A16</f>
+        <v>WTG_onshore</v>
+      </c>
+      <c r="C31" t="str">
+        <f>[1]TechnologiesEmlab!B16</f>
+        <v>VariableRenewableOperator</v>
+      </c>
+      <c r="D31">
+        <f>[1]TechnologiesEmlab!C16</f>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f>[1]TechnologiesEmlab!D16</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>[1]TechnologiesEmlab!E16</f>
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <f>[1]TechnologiesEmlab!F16</f>
+        <v>25</v>
+      </c>
+      <c r="H31" t="b">
+        <f>[1]TechnologiesEmlab!G16</f>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f>[1]TechnologiesEmlab!H16</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>[1]TechnologiesEmlab!I16</f>
+        <v>0.05</v>
+      </c>
+      <c r="K31">
+        <f>[1]TechnologiesEmlab!J16</f>
+        <v>0.05</v>
+      </c>
+      <c r="L31">
+        <f>[1]TechnologiesEmlab!K16</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f>[1]TechnologiesEmlab!L16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" t="str">
+        <f>[1]TechnologiesEmlab!A17</f>
+        <v>PV_utility_systems</v>
+      </c>
+      <c r="C32" t="str">
+        <f>[1]TechnologiesEmlab!B17</f>
+        <v>VariableRenewableOperator</v>
+      </c>
+      <c r="D32">
+        <f>[1]TechnologiesEmlab!C17</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f>[1]TechnologiesEmlab!D17</f>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f>[1]TechnologiesEmlab!E17</f>
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <f>[1]TechnologiesEmlab!F17</f>
+        <v>25</v>
+      </c>
+      <c r="H32" t="b">
+        <f>[1]TechnologiesEmlab!G17</f>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f>[1]TechnologiesEmlab!H17</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>[1]TechnologiesEmlab!I17</f>
+        <v>0.05</v>
+      </c>
+      <c r="K32">
+        <f>[1]TechnologiesEmlab!J17</f>
+        <v>0.08</v>
+      </c>
+      <c r="L32">
+        <f>[1]TechnologiesEmlab!K17</f>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f>[1]TechnologiesEmlab!L17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33" t="str">
+        <f>[1]TechnologiesEmlab!A18</f>
+        <v>Hydropower_reservoir_medium</v>
+      </c>
+      <c r="C33" t="str">
+        <f>[1]TechnologiesEmlab!B18</f>
+        <v>VariableRenewableOperator</v>
+      </c>
+      <c r="D33">
+        <f>[1]TechnologiesEmlab!C18</f>
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <f>[1]TechnologiesEmlab!D18</f>
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <f>[1]TechnologiesEmlab!E18</f>
+        <v>60</v>
+      </c>
+      <c r="G33">
+        <f>[1]TechnologiesEmlab!F18</f>
+        <v>60</v>
+      </c>
+      <c r="H33" t="b">
+        <f>[1]TechnologiesEmlab!G18</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>[1]TechnologiesEmlab!H18</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>[1]TechnologiesEmlab!I18</f>
+        <v>0.05</v>
+      </c>
+      <c r="K33">
+        <f>[1]TechnologiesEmlab!J18</f>
+        <v>0.5</v>
+      </c>
+      <c r="L33">
+        <f>[1]TechnologiesEmlab!K18</f>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f>[1]TechnologiesEmlab!L18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="B34" t="str">
+        <f>[1]TechnologiesEmlab!A19</f>
+        <v>hydrogen_turbine</v>
+      </c>
+      <c r="C34" t="str">
+        <f>[1]TechnologiesEmlab!B19</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D34">
+        <f>[1]TechnologiesEmlab!C19</f>
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f>[1]TechnologiesEmlab!D19</f>
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f>[1]TechnologiesEmlab!E19</f>
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <f>[1]TechnologiesEmlab!F19</f>
+        <v>30</v>
+      </c>
+      <c r="H34" t="b">
+        <f>[1]TechnologiesEmlab!G19</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>[1]TechnologiesEmlab!H19</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>[1]TechnologiesEmlab!I19</f>
+        <v>0.05</v>
+      </c>
+      <c r="K34">
+        <f>[1]TechnologiesEmlab!J19</f>
+        <v>1</v>
+      </c>
+      <c r="L34" t="str">
+        <f>[1]TechnologiesEmlab!K19</f>
+        <v>hydrogen</v>
+      </c>
+      <c r="M34">
+        <f>[1]TechnologiesEmlab!L19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" t="str">
+        <f>[1]TechnologiesEmlab!A20</f>
+        <v>hydrogen_CHP</v>
+      </c>
+      <c r="C35" t="str">
+        <f>[1]TechnologiesEmlab!B20</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D35">
+        <f>[1]TechnologiesEmlab!C20</f>
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <f>[1]TechnologiesEmlab!D20</f>
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <f>[1]TechnologiesEmlab!E20</f>
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <f>[1]TechnologiesEmlab!F20</f>
+        <v>30</v>
+      </c>
+      <c r="H35" t="b">
+        <f>[1]TechnologiesEmlab!G20</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>[1]TechnologiesEmlab!H20</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f>[1]TechnologiesEmlab!I20</f>
+        <v>0.05</v>
+      </c>
+      <c r="K35">
+        <f>[1]TechnologiesEmlab!J20</f>
+        <v>1</v>
+      </c>
+      <c r="L35" t="str">
+        <f>[1]TechnologiesEmlab!K20</f>
+        <v>hydrogen</v>
+      </c>
+      <c r="M35">
+        <f>[1]TechnologiesEmlab!L20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="B36" t="str">
+        <f>[1]TechnologiesEmlab!A21</f>
+        <v>hydrogen_combined_cycle</v>
+      </c>
+      <c r="C36" t="str">
+        <f>[1]TechnologiesEmlab!B21</f>
+        <v>ConventionalPlantOperator</v>
+      </c>
+      <c r="D36">
+        <f>[1]TechnologiesEmlab!C21</f>
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f>[1]TechnologiesEmlab!D21</f>
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <f>[1]TechnologiesEmlab!E21</f>
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <f>[1]TechnologiesEmlab!F21</f>
+        <v>30</v>
+      </c>
+      <c r="H36" t="b">
+        <f>[1]TechnologiesEmlab!G21</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>[1]TechnologiesEmlab!H21</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f>[1]TechnologiesEmlab!I21</f>
+        <v>0.05</v>
+      </c>
+      <c r="K36">
+        <f>[1]TechnologiesEmlab!J21</f>
+        <v>1</v>
+      </c>
+      <c r="L36" t="str">
+        <f>[1]TechnologiesEmlab!K21</f>
+        <v>hydrogen</v>
+      </c>
+      <c r="M36">
+        <f>[1]TechnologiesEmlab!L21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39" t="str">
+        <f>[1]EnergyProducers!A1</f>
+        <v>Name</v>
+      </c>
+      <c r="C39" t="str">
+        <f>[1]EnergyProducers!B1</f>
+        <v>investorMarket</v>
+      </c>
+      <c r="D39" t="str">
+        <f>[1]EnergyProducers!C1</f>
+        <v>priceMarkUp</v>
+      </c>
+      <c r="E39" t="str">
+        <f>[1]EnergyProducers!D1</f>
+        <v>willingToInvest</v>
+      </c>
+      <c r="F39" t="str">
+        <f>[1]EnergyProducers!E1</f>
+        <v>downpaymentFractionOfCash</v>
+      </c>
+      <c r="G39" t="str">
+        <f>[1]EnergyProducers!F1</f>
+        <v>dismantlingRequiredOperatingProfit</v>
+      </c>
+      <c r="H39" t="str">
+        <f>[1]EnergyProducers!G1</f>
+        <v>debtRatioOfInvestments</v>
+      </c>
+      <c r="I39" t="str">
+        <f>[1]EnergyProducers!H1</f>
+        <v>loanInterestRate</v>
+      </c>
+      <c r="J39" t="str">
+        <f>[1]EnergyProducers!I1</f>
+        <v>equityInterestRate</v>
+      </c>
+      <c r="K39" t="str">
+        <f>[1]EnergyProducers!J1</f>
+        <v>longTermContractPastTimeHorizon</v>
+      </c>
+      <c r="L39" t="str">
+        <f>[1]EnergyProducers!K1</f>
+        <v>longTermContractMargin</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="B40" t="str">
+        <f>[1]EnergyProducers!A2</f>
+        <v>ProducerDE</v>
+      </c>
+      <c r="C40" t="str">
+        <f>[1]EnergyProducers!B2</f>
+        <v>GermanElectricitySpotMarket</v>
+      </c>
+      <c r="D40">
+        <f>[1]EnergyProducers!C2</f>
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <f>[1]EnergyProducers!D2</f>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f>[1]EnergyProducers!E2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G40">
+        <f>[1]EnergyProducers!F2</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>[1]EnergyProducers!G2</f>
+        <v>0.7</v>
+      </c>
+      <c r="I40">
+        <f>[1]EnergyProducers!H2</f>
+        <v>0.1</v>
+      </c>
+      <c r="J40">
+        <f>[1]EnergyProducers!I2</f>
+        <v>0.1</v>
+      </c>
+      <c r="K40">
+        <f>[1]EnergyProducers!J2</f>
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <f>[1]EnergyProducers!K2</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" t="str">
+        <f>[1]EnergyProducers!A3</f>
+        <v>ProducerNL</v>
+      </c>
+      <c r="C41" t="str">
+        <f>[1]EnergyProducers!B3</f>
+        <v>DutchElectricitySpotMarket</v>
+      </c>
+      <c r="D41">
+        <f>[1]EnergyProducers!C3</f>
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <f>[1]EnergyProducers!D3</f>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f>[1]EnergyProducers!E3</f>
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <f>[1]EnergyProducers!F3</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f>[1]EnergyProducers!G3</f>
+        <v>0.7</v>
+      </c>
+      <c r="I41">
+        <f>[1]EnergyProducers!H3</f>
+        <v>0.1</v>
+      </c>
+      <c r="J41">
+        <f>[1]EnergyProducers!I3</f>
+        <v>0.1</v>
+      </c>
+      <c r="K41">
+        <f>[1]EnergyProducers!J3</f>
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <f>[1]EnergyProducers!K3</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" t="str">
+        <f>[1]ElectricitySpotMarkets!A1</f>
+        <v>Name</v>
+      </c>
+      <c r="C44" t="str">
+        <f>[1]ElectricitySpotMarkets!B1</f>
+        <v>valueOfLostLoad</v>
+      </c>
+      <c r="D44" t="str">
+        <f>[1]ElectricitySpotMarkets!D1</f>
+        <v>country</v>
+      </c>
+      <c r="E44" t="str">
+        <f>[1]ElectricitySpotMarkets!C1</f>
+        <v>growthTrend</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="B45" t="str">
+        <f>[1]ElectricitySpotMarkets!A2</f>
+        <v>GermanElectricitySpotMarket</v>
+      </c>
+      <c r="C45">
+        <f>[1]ElectricitySpotMarkets!B2</f>
+        <v>4000</v>
+      </c>
+      <c r="D45" t="str">
+        <f>[1]ElectricitySpotMarkets!D2</f>
+        <v>DE</v>
+      </c>
+      <c r="E45" t="str">
+        <f>[1]ElectricitySpotMarkets!C2</f>
+        <v>demandGrowthTrend</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="B46" t="str">
+        <f>[1]ElectricitySpotMarkets!A3</f>
+        <v>DutchElectricitySpotMarket</v>
+      </c>
+      <c r="C46">
+        <f>[1]ElectricitySpotMarkets!B3</f>
+        <v>4000</v>
+      </c>
+      <c r="D46" t="str">
+        <f>[1]ElectricitySpotMarkets!D3</f>
+        <v>NL</v>
+      </c>
+      <c r="E46" t="str">
+        <f>[1]ElectricitySpotMarkets!C3</f>
+        <v>demandGrowthTrend</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="9" t="str">
+        <f>[1]yearlyCO2!A1</f>
+        <v>year</v>
+      </c>
+      <c r="C49" s="9" t="str">
+        <f>[1]yearlyCO2!B1</f>
+        <v>NL</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="9">
+        <f>[1]yearlyCO2!A2</f>
+        <v>2010</v>
+      </c>
+      <c r="C50" s="9">
+        <f>[1]yearlyCO2!B2</f>
+        <v>14.3538679245283</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="9">
+        <f>[1]yearlyCO2!A3</f>
+        <v>2011</v>
+      </c>
+      <c r="C51" s="9">
+        <f>[1]yearlyCO2!B3</f>
+        <v>13.2143027888446</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="9">
+        <f>[1]yearlyCO2!A4</f>
+        <v>2012</v>
+      </c>
+      <c r="C52" s="9">
+        <f>[1]yearlyCO2!B4</f>
+        <v>7.4974103585657303</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="9">
+        <f>[1]yearlyCO2!A5</f>
+        <v>2013</v>
+      </c>
+      <c r="C53" s="9">
+        <f>[1]yearlyCO2!B5</f>
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="9">
+        <f>[1]yearlyCO2!A6</f>
+        <v>2014</v>
+      </c>
+      <c r="C54" s="9">
+        <f>[1]yearlyCO2!B6</f>
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="9">
+        <f>[1]yearlyCO2!A7</f>
+        <v>2015</v>
+      </c>
+      <c r="C55" s="9">
+        <f>[1]yearlyCO2!B7</f>
+        <v>18.079999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="9">
+        <f>[1]yearlyCO2!A8</f>
+        <v>2016</v>
+      </c>
+      <c r="C56" s="9">
+        <f>[1]yearlyCO2!B8</f>
+        <v>18.079999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="9">
+        <f>[1]yearlyCO2!A9</f>
+        <v>2017</v>
+      </c>
+      <c r="C57" s="9">
+        <f>[1]yearlyCO2!B9</f>
+        <v>18.079999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="9">
+        <f>[1]yearlyCO2!A10</f>
+        <v>2018</v>
+      </c>
+      <c r="C58" s="9">
+        <f>[1]yearlyCO2!B10</f>
+        <v>18.079999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="9">
+        <f>[1]yearlyCO2!A11</f>
+        <v>2019</v>
+      </c>
+      <c r="C59" s="9">
+        <f>[1]yearlyCO2!B11</f>
+        <v>21.7845449890137</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="9">
+        <f>[1]yearlyCO2!A12</f>
+        <v>2020</v>
+      </c>
+      <c r="C60" s="9">
+        <f>[1]yearlyCO2!B12</f>
+        <v>21.732001069450401</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="9">
+        <f>[1]yearlyCO2!A13</f>
+        <v>2021</v>
+      </c>
+      <c r="C61" s="9">
+        <f>[1]yearlyCO2!B13</f>
+        <v>45.310069289016702</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="9">
+        <f>[1]yearlyCO2!A14</f>
+        <v>2022</v>
+      </c>
+      <c r="C62" s="9">
+        <f>[1]yearlyCO2!B14</f>
+        <v>63.1633059127807</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="9">
+        <f>[1]yearlyCO2!A15</f>
+        <v>2023</v>
+      </c>
+      <c r="C63" s="9">
+        <f>[1]yearlyCO2!B15</f>
+        <v>66.373634433746304</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="9">
+        <f>[1]yearlyCO2!A16</f>
+        <v>2024</v>
+      </c>
+      <c r="C64" s="9">
+        <f>[1]yearlyCO2!B16</f>
+        <v>69.664229811859101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="9">
+        <f>[1]yearlyCO2!A17</f>
+        <v>2025</v>
+      </c>
+      <c r="C65" s="9">
+        <f>[1]yearlyCO2!B17</f>
+        <v>73.115337734985303</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="9">
+        <f>[1]yearlyCO2!A18</f>
+        <v>2026</v>
+      </c>
+      <c r="C66" s="9">
+        <f>[1]yearlyCO2!B18</f>
+        <v>76.807218003845193</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="9">
+        <f>[1]yearlyCO2!A19</f>
+        <v>2027</v>
+      </c>
+      <c r="C67" s="9">
+        <f>[1]yearlyCO2!B19</f>
+        <v>80.659617874145496</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="9">
+        <f>[1]yearlyCO2!A20</f>
+        <v>2028</v>
+      </c>
+      <c r="C68" s="9">
+        <f>[1]yearlyCO2!B20</f>
+        <v>84.672537345886198</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="9">
+        <f>[1]yearlyCO2!A21</f>
+        <v>2029</v>
+      </c>
+      <c r="C69" s="9">
+        <f>[1]yearlyCO2!B21</f>
+        <v>88.926222106933594</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="9">
+        <f>[1]yearlyCO2!A22</f>
+        <v>2030</v>
+      </c>
+      <c r="C70" s="9">
+        <f>[1]yearlyCO2!B22</f>
+        <v>93.340433525848397</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="9">
+        <f>[1]yearlyCO2!A23</f>
+        <v>2031</v>
+      </c>
+      <c r="C71" s="9">
+        <f>[1]yearlyCO2!B23</f>
+        <v>97.995417290496803</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="9">
+        <f>[1]yearlyCO2!A24</f>
+        <v>2032</v>
+      </c>
+      <c r="C72" s="9">
+        <f>[1]yearlyCO2!B24</f>
+        <v>102.891173400879</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="9">
+        <f>[1]yearlyCO2!A25</f>
+        <v>2033</v>
+      </c>
+      <c r="C73" s="9">
+        <f>[1]yearlyCO2!B25</f>
+        <v>108.107968714142</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="9">
+        <f>[1]yearlyCO2!A26</f>
+        <v>2034</v>
+      </c>
+      <c r="C74" s="9">
+        <f>[1]yearlyCO2!B26</f>
+        <v>113.485276572418</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="9">
+        <f>[1]yearlyCO2!A27</f>
+        <v>2035</v>
+      </c>
+      <c r="C75" s="9">
+        <f>[1]yearlyCO2!B27</f>
+        <v>119.183616577148</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="9">
+        <f>[1]yearlyCO2!A28</f>
+        <v>2036</v>
+      </c>
+      <c r="C76" s="9">
+        <f>[1]yearlyCO2!B28</f>
+        <v>125.122728927612</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="9">
+        <f>[1]yearlyCO2!A29</f>
+        <v>2037</v>
+      </c>
+      <c r="C77" s="9">
+        <f>[1]yearlyCO2!B29</f>
+        <v>131.382880480957</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="9">
+        <f>[1]yearlyCO2!A30</f>
+        <v>2038</v>
+      </c>
+      <c r="C78" s="9">
+        <f>[1]yearlyCO2!B30</f>
+        <v>137.964057124329</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="9">
+        <f>[1]yearlyCO2!A31</f>
+        <v>2039</v>
+      </c>
+      <c r="C79" s="9">
+        <f>[1]yearlyCO2!B31</f>
+        <v>144.86627297058101</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="9">
+        <f>[1]yearlyCO2!A32</f>
+        <v>2040</v>
+      </c>
+      <c r="C80" s="9">
+        <f>[1]yearlyCO2!B32</f>
+        <v>152.08952801971401</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="9">
+        <f>[1]yearlyCO2!A33</f>
+        <v>2041</v>
+      </c>
+      <c r="C81" s="9">
+        <f>[1]yearlyCO2!B33</f>
+        <v>154.87831521398357</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="9">
+        <f>[1]yearlyCO2!A34</f>
+        <v>2042</v>
+      </c>
+      <c r="C82" s="9">
+        <f>[1]yearlyCO2!B34</f>
+        <v>160.36718818841777</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="9">
+        <f>[1]yearlyCO2!A35</f>
+        <v>2043</v>
+      </c>
+      <c r="C83" s="9">
+        <f>[1]yearlyCO2!B35</f>
+        <v>165.85606116285197</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="9">
+        <f>[1]yearlyCO2!A36</f>
+        <v>2044</v>
+      </c>
+      <c r="C84" s="9">
+        <f>[1]yearlyCO2!B36</f>
+        <v>171.34493413728617</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="9">
+        <f>[1]yearlyCO2!A37</f>
+        <v>2045</v>
+      </c>
+      <c r="C85" s="9">
+        <f>[1]yearlyCO2!B37</f>
+        <v>176.83380711172035</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="9">
+        <f>[1]yearlyCO2!A38</f>
+        <v>2046</v>
+      </c>
+      <c r="C86" s="9">
+        <f>[1]yearlyCO2!B38</f>
+        <v>182.32268008615455</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="9">
+        <f>[1]yearlyCO2!A39</f>
+        <v>2047</v>
+      </c>
+      <c r="C87" s="9">
+        <f>[1]yearlyCO2!B39</f>
+        <v>187.81155306058875</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="9">
+        <f>[1]yearlyCO2!A40</f>
+        <v>2048</v>
+      </c>
+      <c r="C88" s="9">
+        <f>[1]yearlyCO2!B40</f>
+        <v>193.30042603502292</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="9">
+        <f>[1]yearlyCO2!A41</f>
+        <v>2049</v>
+      </c>
+      <c r="C89" s="9">
+        <f>[1]yearlyCO2!B41</f>
+        <v>198.78929900945712</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="9">
+        <f>[1]yearlyCO2!A42</f>
+        <v>2050</v>
+      </c>
+      <c r="C90" s="9">
+        <f>[1]yearlyCO2!B42</f>
+        <v>204.27817198389133</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="9">
+        <f>[1]yearlyCO2!A43</f>
+        <v>2051</v>
+      </c>
+      <c r="C91" s="9">
+        <f>[1]yearlyCO2!B43</f>
+        <v>209.76704495832553</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" s="9">
+        <f>[1]yearlyCO2!A44</f>
+        <v>2052</v>
+      </c>
+      <c r="C92" s="9">
+        <f>[1]yearlyCO2!B44</f>
+        <v>215.25591793275973</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" s="9">
+        <f>[1]yearlyCO2!A45</f>
+        <v>2053</v>
+      </c>
+      <c r="C93" s="9">
+        <f>[1]yearlyCO2!B45</f>
+        <v>220.7447909071939</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="9">
+        <f>[1]yearlyCO2!A46</f>
+        <v>2054</v>
+      </c>
+      <c r="C94" s="9">
+        <f>[1]yearlyCO2!B46</f>
+        <v>226.2336638816281</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" s="6" t="str">
+        <f>[1]YearlyTargets!A1</f>
+        <v>year</v>
+      </c>
+      <c r="C107" s="6" t="str">
+        <f>[1]YearlyTargets!B1</f>
+        <v>yearlytargetNL_windonshore</v>
+      </c>
+      <c r="D107" s="6" t="str">
+        <f>[1]YearlyTargets!C1</f>
+        <v>yearlytargetNL_windoffshore</v>
+      </c>
+      <c r="E107" s="6" t="str">
+        <f>[1]YearlyTargets!D1</f>
+        <v>yearlytargetNL_PV</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" s="6">
+        <f>[1]YearlyTargets!A2</f>
+        <v>2019</v>
+      </c>
+      <c r="C108" s="6">
+        <f>[1]YearlyTargets!B2</f>
+        <v>290.54545454545456</v>
+      </c>
+      <c r="D108" s="6">
+        <f>[1]YearlyTargets!C2</f>
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="E108" s="6">
+        <f>[1]YearlyTargets!D2</f>
+        <v>1724.3181818181799</v>
+      </c>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" s="6">
+        <f>[1]YearlyTargets!A3</f>
+        <v>2020</v>
+      </c>
+      <c r="C109" s="6">
+        <f>[1]YearlyTargets!B3</f>
+        <v>290.54545454545456</v>
+      </c>
+      <c r="D109" s="6">
+        <f>[1]YearlyTargets!C3</f>
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="E109" s="6">
+        <f>[1]YearlyTargets!D3</f>
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" s="6">
+        <f>[1]YearlyTargets!A4</f>
+        <v>2021</v>
+      </c>
+      <c r="C110" s="6">
+        <f>[1]YearlyTargets!B4</f>
+        <v>290.54545454545456</v>
+      </c>
+      <c r="D110" s="6">
+        <f>[1]YearlyTargets!C4</f>
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="E110" s="6">
+        <f>[1]YearlyTargets!D4</f>
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111" s="6">
+        <f>[1]YearlyTargets!A5</f>
+        <v>2022</v>
+      </c>
+      <c r="C111" s="6">
+        <f>[1]YearlyTargets!B5</f>
+        <v>290.54545454545456</v>
+      </c>
+      <c r="D111" s="6">
+        <f>[1]YearlyTargets!C5</f>
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="E111" s="6">
+        <f>[1]YearlyTargets!D5</f>
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" s="6">
+        <f>[1]YearlyTargets!A6</f>
+        <v>2023</v>
+      </c>
+      <c r="C112" s="6">
+        <f>[1]YearlyTargets!B6</f>
+        <v>290.54545454545456</v>
+      </c>
+      <c r="D112" s="6">
+        <f>[1]YearlyTargets!C6</f>
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="E112" s="6">
+        <f>[1]YearlyTargets!D6</f>
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="6">
+        <f>[1]YearlyTargets!A7</f>
+        <v>2024</v>
+      </c>
+      <c r="C113" s="6">
+        <f>[1]YearlyTargets!B7</f>
+        <v>290.54545454545456</v>
+      </c>
+      <c r="D113" s="6">
+        <f>[1]YearlyTargets!C7</f>
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="E113" s="6">
+        <f>[1]YearlyTargets!D7</f>
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="6">
+        <f>[1]YearlyTargets!A8</f>
+        <v>2025</v>
+      </c>
+      <c r="C114" s="6">
+        <f>[1]YearlyTargets!B8</f>
+        <v>290.54545454545456</v>
+      </c>
+      <c r="D114" s="6">
+        <f>[1]YearlyTargets!C8</f>
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="E114" s="6">
+        <f>[1]YearlyTargets!D8</f>
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="6">
+        <f>[1]YearlyTargets!A9</f>
+        <v>2026</v>
+      </c>
+      <c r="C115" s="6">
+        <f>[1]YearlyTargets!B9</f>
+        <v>290.54545454545456</v>
+      </c>
+      <c r="D115" s="6">
+        <f>[1]YearlyTargets!C9</f>
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="E115" s="6">
+        <f>[1]YearlyTargets!D9</f>
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="6">
+        <f>[1]YearlyTargets!A10</f>
+        <v>2027</v>
+      </c>
+      <c r="C116" s="6">
+        <f>[1]YearlyTargets!B10</f>
+        <v>290.54545454545456</v>
+      </c>
+      <c r="D116" s="6">
+        <f>[1]YearlyTargets!C10</f>
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="E116" s="6">
+        <f>[1]YearlyTargets!D10</f>
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="6">
+        <f>[1]YearlyTargets!A11</f>
+        <v>2028</v>
+      </c>
+      <c r="C117" s="6">
+        <f>[1]YearlyTargets!B11</f>
+        <v>290.54545454545456</v>
+      </c>
+      <c r="D117" s="6">
+        <f>[1]YearlyTargets!C11</f>
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="E117" s="6">
+        <f>[1]YearlyTargets!D11</f>
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="6">
+        <f>[1]YearlyTargets!A12</f>
+        <v>2029</v>
+      </c>
+      <c r="C118" s="6">
+        <f>[1]YearlyTargets!B12</f>
+        <v>290.54545454545456</v>
+      </c>
+      <c r="D118" s="6">
+        <f>[1]YearlyTargets!C12</f>
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="E118" s="6">
+        <f>[1]YearlyTargets!D12</f>
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="6">
+        <f>[1]YearlyTargets!A13</f>
+        <v>2030</v>
+      </c>
+      <c r="C119" s="6">
+        <f>[1]YearlyTargets!B13</f>
+        <v>228.4</v>
+      </c>
+      <c r="D119" s="6">
+        <f>[1]YearlyTargets!C13</f>
+        <v>2450</v>
+      </c>
+      <c r="E119" s="6">
+        <f>[1]YearlyTargets!D13</f>
+        <v>3298.8249999999998</v>
+      </c>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="6">
+        <f>[1]YearlyTargets!A14</f>
+        <v>2031</v>
+      </c>
+      <c r="C120" s="6">
+        <f>[1]YearlyTargets!B14</f>
+        <v>228.4</v>
+      </c>
+      <c r="D120" s="6">
+        <f>[1]YearlyTargets!C14</f>
+        <v>2450</v>
+      </c>
+      <c r="E120" s="6">
+        <f>[1]YearlyTargets!D14</f>
+        <v>3298.8249999999998</v>
+      </c>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="6">
+        <f>[1]YearlyTargets!A15</f>
+        <v>2032</v>
+      </c>
+      <c r="C121" s="6">
+        <f>[1]YearlyTargets!B15</f>
+        <v>228.4</v>
+      </c>
+      <c r="D121" s="6">
+        <f>[1]YearlyTargets!C15</f>
+        <v>2450</v>
+      </c>
+      <c r="E121" s="6">
+        <f>[1]YearlyTargets!D15</f>
+        <v>3298.8249999999998</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="6">
+        <f>[1]YearlyTargets!A16</f>
+        <v>2033</v>
+      </c>
+      <c r="C122" s="6">
+        <f>[1]YearlyTargets!B16</f>
+        <v>228.4</v>
+      </c>
+      <c r="D122" s="6">
+        <f>[1]YearlyTargets!C16</f>
+        <v>2450</v>
+      </c>
+      <c r="E122" s="6">
+        <f>[1]YearlyTargets!D16</f>
+        <v>3298.8249999999998</v>
+      </c>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="6">
+        <f>[1]YearlyTargets!A17</f>
+        <v>2034</v>
+      </c>
+      <c r="C123" s="6">
+        <f>[1]YearlyTargets!B17</f>
+        <v>228.4</v>
+      </c>
+      <c r="D123" s="6">
+        <f>[1]YearlyTargets!C17</f>
+        <v>2450</v>
+      </c>
+      <c r="E123" s="6">
+        <f>[1]YearlyTargets!D17</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="6">
+        <f>[1]YearlyTargets!A18</f>
+        <v>2035</v>
+      </c>
+      <c r="C124" s="6">
+        <f>[1]YearlyTargets!B18</f>
+        <v>228.4</v>
+      </c>
+      <c r="D124" s="6">
+        <f>[1]YearlyTargets!C18</f>
+        <v>2450</v>
+      </c>
+      <c r="E124" s="6">
+        <f>[1]YearlyTargets!D18</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="6">
+        <f>[1]YearlyTargets!A19</f>
+        <v>2036</v>
+      </c>
+      <c r="C125" s="6">
+        <f>[1]YearlyTargets!B19</f>
+        <v>228.4</v>
+      </c>
+      <c r="D125" s="6">
+        <f>[1]YearlyTargets!C19</f>
+        <v>2450</v>
+      </c>
+      <c r="E125" s="6">
+        <f>[1]YearlyTargets!D19</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="6">
+        <f>[1]YearlyTargets!A20</f>
+        <v>2037</v>
+      </c>
+      <c r="C126" s="6">
+        <f>[1]YearlyTargets!B20</f>
+        <v>228.4</v>
+      </c>
+      <c r="D126" s="6">
+        <f>[1]YearlyTargets!C20</f>
+        <v>2450</v>
+      </c>
+      <c r="E126" s="6">
+        <f>[1]YearlyTargets!D20</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="6">
+        <f>[1]YearlyTargets!A21</f>
+        <v>2038</v>
+      </c>
+      <c r="C127" s="6">
+        <f>[1]YearlyTargets!B21</f>
+        <v>228.4</v>
+      </c>
+      <c r="D127" s="6">
+        <f>[1]YearlyTargets!C21</f>
+        <v>2450</v>
+      </c>
+      <c r="E127" s="6">
+        <f>[1]YearlyTargets!D21</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="6">
+        <f>[1]YearlyTargets!A22</f>
+        <v>2039</v>
+      </c>
+      <c r="C128" s="6">
+        <f>[1]YearlyTargets!B22</f>
+        <v>228.4</v>
+      </c>
+      <c r="D128" s="6">
+        <f>[1]YearlyTargets!C22</f>
+        <v>2450</v>
+      </c>
+      <c r="E128" s="6">
+        <f>[1]YearlyTargets!D22</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="6">
+        <f>[1]YearlyTargets!A23</f>
+        <v>2040</v>
+      </c>
+      <c r="C129" s="6">
+        <f>[1]YearlyTargets!B23</f>
+        <v>228.4</v>
+      </c>
+      <c r="D129" s="6">
+        <f>[1]YearlyTargets!C23</f>
+        <v>2450</v>
+      </c>
+      <c r="E129" s="6">
+        <f>[1]YearlyTargets!D23</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="6">
+        <f>[1]YearlyTargets!A24</f>
+        <v>2041</v>
+      </c>
+      <c r="C130" s="6">
+        <f>[1]YearlyTargets!B24</f>
+        <v>228.4</v>
+      </c>
+      <c r="D130" s="6">
+        <f>[1]YearlyTargets!C24</f>
+        <v>2450</v>
+      </c>
+      <c r="E130" s="6">
+        <f>[1]YearlyTargets!D24</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="6">
+        <f>[1]YearlyTargets!A25</f>
+        <v>2042</v>
+      </c>
+      <c r="C131" s="6">
+        <f>[1]YearlyTargets!B25</f>
+        <v>228.4</v>
+      </c>
+      <c r="D131" s="6">
+        <f>[1]YearlyTargets!C25</f>
+        <v>2450</v>
+      </c>
+      <c r="E131" s="6">
+        <f>[1]YearlyTargets!D25</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="6">
+        <f>[1]YearlyTargets!A26</f>
+        <v>2043</v>
+      </c>
+      <c r="C132" s="6">
+        <f>[1]YearlyTargets!B26</f>
+        <v>228.4</v>
+      </c>
+      <c r="D132" s="6">
+        <f>[1]YearlyTargets!C26</f>
+        <v>2450</v>
+      </c>
+      <c r="E132" s="6">
+        <f>[1]YearlyTargets!D26</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" s="6">
+        <f>[1]YearlyTargets!A27</f>
+        <v>2044</v>
+      </c>
+      <c r="C133" s="6">
+        <f>[1]YearlyTargets!B27</f>
+        <v>228.4</v>
+      </c>
+      <c r="D133" s="6">
+        <f>[1]YearlyTargets!C27</f>
+        <v>2450</v>
+      </c>
+      <c r="E133" s="6">
+        <f>[1]YearlyTargets!D27</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" s="6">
+        <f>[1]YearlyTargets!A28</f>
+        <v>2045</v>
+      </c>
+      <c r="C134" s="6">
+        <f>[1]YearlyTargets!B28</f>
+        <v>228.4</v>
+      </c>
+      <c r="D134" s="6">
+        <f>[1]YearlyTargets!C28</f>
+        <v>2450</v>
+      </c>
+      <c r="E134" s="6">
+        <f>[1]YearlyTargets!D28</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" s="6">
+        <f>[1]YearlyTargets!A29</f>
+        <v>2046</v>
+      </c>
+      <c r="C135" s="6">
+        <f>[1]YearlyTargets!B29</f>
+        <v>228.4</v>
+      </c>
+      <c r="D135" s="6">
+        <f>[1]YearlyTargets!C29</f>
+        <v>2450</v>
+      </c>
+      <c r="E135" s="6">
+        <f>[1]YearlyTargets!D29</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="B136" s="6">
+        <f>[1]YearlyTargets!A30</f>
+        <v>2047</v>
+      </c>
+      <c r="C136" s="6">
+        <f>[1]YearlyTargets!B30</f>
+        <v>228.4</v>
+      </c>
+      <c r="D136" s="6">
+        <f>[1]YearlyTargets!C30</f>
+        <v>2450</v>
+      </c>
+      <c r="E136" s="6">
+        <f>[1]YearlyTargets!D30</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" s="6">
+        <f>[1]YearlyTargets!A31</f>
+        <v>2048</v>
+      </c>
+      <c r="C137" s="6">
+        <f>[1]YearlyTargets!B31</f>
+        <v>228.4</v>
+      </c>
+      <c r="D137" s="6">
+        <f>[1]YearlyTargets!C31</f>
+        <v>2450</v>
+      </c>
+      <c r="E137" s="6">
+        <f>[1]YearlyTargets!D31</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" s="6">
+        <f>[1]YearlyTargets!A32</f>
+        <v>2049</v>
+      </c>
+      <c r="C138" s="6">
+        <f>[1]YearlyTargets!B32</f>
+        <v>228.4</v>
+      </c>
+      <c r="D138" s="6">
+        <f>[1]YearlyTargets!C32</f>
+        <v>2450</v>
+      </c>
+      <c r="E138" s="6">
+        <f>[1]YearlyTargets!D32</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="6">
+        <f>[1]YearlyTargets!A33</f>
+        <v>2050</v>
+      </c>
+      <c r="C139" s="6">
+        <f>[1]YearlyTargets!B33</f>
+        <v>228.4</v>
+      </c>
+      <c r="D139" s="6">
+        <f>[1]YearlyTargets!C33</f>
+        <v>2450</v>
+      </c>
+      <c r="E139" s="6">
+        <f>[1]YearlyTargets!D33</f>
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" t="str">
+        <f>[1]FuelPriceTrends!A1</f>
+        <v>Name</v>
+      </c>
+      <c r="C141" t="str">
+        <f>[1]FuelPriceTrends!B1</f>
+        <v>Top</v>
+      </c>
+      <c r="D141" t="str">
+        <f>[1]FuelPriceTrends!C1</f>
+        <v>Max</v>
+      </c>
+      <c r="E141" t="str">
+        <f>[1]FuelPriceTrends!D1</f>
+        <v>Min</v>
+      </c>
+      <c r="F141" t="str">
+        <f>[1]FuelPriceTrends!E1</f>
+        <v>Fuel</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" t="str">
+        <f>[1]FuelPriceTrends!A2</f>
+        <v>biomassTrend</v>
+      </c>
+      <c r="C142">
+        <f>[1]FuelPriceTrends!B2</f>
+        <v>1.01</v>
+      </c>
+      <c r="D142">
+        <f>[1]FuelPriceTrends!C2</f>
+        <v>1.05</v>
+      </c>
+      <c r="E142">
+        <f>[1]FuelPriceTrends!D2</f>
+        <v>0.97</v>
+      </c>
+      <c r="F142" t="str">
+        <f>[1]FuelPriceTrends!E2</f>
+        <v>Biomass</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" t="str">
+        <f>[1]FuelPriceTrends!A3</f>
+        <v>uraniumTrend</v>
+      </c>
+      <c r="C143">
+        <f>[1]FuelPriceTrends!B3</f>
+        <v>1.01</v>
+      </c>
+      <c r="D143">
+        <f>[1]FuelPriceTrends!C3</f>
+        <v>1.02</v>
+      </c>
+      <c r="E143">
+        <f>[1]FuelPriceTrends!D3</f>
+        <v>1</v>
+      </c>
+      <c r="F143" t="str">
+        <f>[1]FuelPriceTrends!E3</f>
+        <v>Nuclear</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" t="str">
+        <f>[1]FuelPriceTrends!A4</f>
+        <v>fuelOilTrend</v>
+      </c>
+      <c r="C144">
+        <f>[1]FuelPriceTrends!B4</f>
+        <v>1.01</v>
+      </c>
+      <c r="D144">
+        <f>[1]FuelPriceTrends!C4</f>
+        <v>1.04</v>
+      </c>
+      <c r="E144">
+        <f>[1]FuelPriceTrends!D4</f>
+        <v>0.96</v>
+      </c>
+      <c r="F144" t="str">
+        <f>[1]FuelPriceTrends!E4</f>
+        <v>Oil</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" t="str">
+        <f>[1]FuelPriceTrends!A5</f>
+        <v>hardCoalTrend</v>
+      </c>
+      <c r="C145">
+        <f>[1]FuelPriceTrends!B5</f>
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <f>[1]FuelPriceTrends!C5</f>
+        <v>1.04</v>
+      </c>
+      <c r="E145">
+        <f>[1]FuelPriceTrends!D5</f>
+        <v>0.79</v>
+      </c>
+      <c r="F145" t="str">
+        <f>[1]FuelPriceTrends!E5</f>
+        <v>Coal</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" t="str">
+        <f>[1]FuelPriceTrends!A6</f>
+        <v>ligniteCoalTrend</v>
+      </c>
+      <c r="C146">
+        <f>[1]FuelPriceTrends!B6</f>
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <f>[1]FuelPriceTrends!C6</f>
+        <v>1.02</v>
+      </c>
+      <c r="E146">
+        <f>[1]FuelPriceTrends!D6</f>
+        <v>0.98</v>
+      </c>
+      <c r="F146" t="str">
+        <f>[1]FuelPriceTrends!E6</f>
+        <v>Lignite</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" t="str">
+        <f>[1]FuelPriceTrends!A7</f>
+        <v>naturalGasTrend</v>
+      </c>
+      <c r="C147">
+        <f>[1]FuelPriceTrends!B7</f>
+        <v>1.01</v>
+      </c>
+      <c r="D147">
+        <f>[1]FuelPriceTrends!C7</f>
+        <v>1.06</v>
+      </c>
+      <c r="E147">
+        <f>[1]FuelPriceTrends!D7</f>
+        <v>0.95</v>
+      </c>
+      <c r="F147" t="str">
+        <f>[1]FuelPriceTrends!E7</f>
+        <v>Natural Gas</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" t="str">
+        <f>[1]FuelPriceTrends!A8</f>
+        <v>co2StartingPrice</v>
+      </c>
+      <c r="C148">
+        <f>[1]FuelPriceTrends!B8</f>
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <f>[1]FuelPriceTrends!C8</f>
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <f>[1]FuelPriceTrends!D8</f>
+        <v>0</v>
+      </c>
+      <c r="F148" t="str">
+        <f>[1]FuelPriceTrends!E8</f>
+        <v>CO2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" t="str">
+        <f>[1]FuelPriceTrends!A9</f>
+        <v>derivedGasTrend</v>
+      </c>
+      <c r="C149">
+        <f>[1]FuelPriceTrends!B9</f>
+        <v>1.01</v>
+      </c>
+      <c r="D149">
+        <f>[1]FuelPriceTrends!C9</f>
+        <v>1.06</v>
+      </c>
+      <c r="E149">
+        <f>[1]FuelPriceTrends!D9</f>
+        <v>0.95</v>
+      </c>
+      <c r="F149" t="str">
+        <f>[1]FuelPriceTrends!E9</f>
+        <v>Derived Gas</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" t="str">
+        <f>[1]FuelPriceTrends!A10</f>
+        <v>freeTrend</v>
+      </c>
+      <c r="C150">
+        <f>[1]FuelPriceTrends!B10</f>
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <f>[1]FuelPriceTrends!C10</f>
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <f>[1]FuelPriceTrends!D10</f>
+        <v>0</v>
+      </c>
+      <c r="F150" t="str">
+        <f>[1]FuelPriceTrends!E10</f>
+        <v>Rese</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" t="str">
+        <f>[1]FuelPriceTrends!A11</f>
+        <v>hydrogenTrend</v>
+      </c>
+      <c r="C151">
+        <f>[1]FuelPriceTrends!B11</f>
+        <v>1.02</v>
+      </c>
+      <c r="D151">
+        <f>[1]FuelPriceTrends!C11</f>
+        <v>1.03</v>
+      </c>
+      <c r="E151">
+        <f>[1]FuelPriceTrends!D11</f>
+        <v>0.98</v>
+      </c>
+      <c r="F151" t="str">
+        <f>[1]FuelPriceTrends!E11</f>
+        <v>Hydrogen</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" t="str">
+        <f>[1]FuelPriceTrends!A12</f>
+        <v>demandGrowthTrend</v>
+      </c>
+      <c r="C152">
+        <f>[1]FuelPriceTrends!B12</f>
+        <v>1.02</v>
+      </c>
+      <c r="D152">
+        <f>[1]FuelPriceTrends!C12</f>
+        <v>1.03</v>
+      </c>
+      <c r="E152">
+        <f>[1]FuelPriceTrends!D12</f>
+        <v>0.98</v>
+      </c>
+      <c r="F152" t="str">
+        <f>[1]FuelPriceTrends!E12</f>
+        <v>Demand</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEC486B-8D86-426D-B3C8-6DDE3231BED1}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1088,7 +6067,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="27.90625" customWidth="1"/>
     <col min="3" max="3" width="57.453125" style="1" customWidth="1"/>
@@ -1096,9 +6075,9 @@
     <col min="5" max="5" width="45.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="72.5">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -1107,63 +6086,63 @@
         <v>33</v>
       </c>
       <c r="E1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="67.5" customHeight="1">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39.5" customHeight="1">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +6150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FC0C52-1913-4575-B131-F635606AE03F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1179,7 +6158,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="2" width="22.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="76.7265625" style="1" customWidth="1"/>
@@ -1187,9 +6166,9 @@
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="29">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -1198,54 +6177,54 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="29">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.5">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72.5">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +6232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C443F717-6A75-432A-822B-7605DAF1775E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1261,7 +6240,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13.36328125" customWidth="1"/>
     <col min="2" max="2" width="20.453125" customWidth="1"/>
@@ -1270,62 +6249,62 @@
     <col min="5" max="5" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="43.5">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51.5" customHeight="1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="C3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
+    <row r="5" spans="1:5">
+      <c r="C5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
+    <row r="6" spans="1:5">
+      <c r="C6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
+    <row r="7" spans="1:5">
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1333,15 +6312,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2ADC10-1ADB-4694-A77C-AC6F567EDBAF}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="33.7265625" customWidth="1"/>
@@ -1351,15 +6330,15 @@
     <col min="6" max="6" width="33.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="72.5">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
@@ -1368,390 +6347,390 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
       <c r="E3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>95</v>
       </c>
-      <c r="F6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
       <c r="F7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
         <v>99</v>
       </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
       <c r="F8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>69</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5">
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" t="s">
+    <row r="32" spans="2:5">
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" t="s">
+    <row r="33" spans="2:5">
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5">
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="C38" t="s">
         <v>81</v>
       </c>
-      <c r="E37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C38" t="s">
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="E38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C39" t="s">
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="E39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C40" t="s">
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="C41" t="s">
         <v>84</v>
       </c>
-      <c r="E40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C41" t="s">
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="C42" t="s">
         <v>85</v>
       </c>
-      <c r="E41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
       <c r="E42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" t="s">
         <v>2</v>
       </c>
       <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="C44" t="s">
         <v>89</v>
       </c>
-      <c r="D43" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C44" t="s">
+      <c r="E44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="C45" t="s">
         <v>90</v>
       </c>
-      <c r="E44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C45" t="s">
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="C46" t="s">
         <v>91</v>
       </c>
-      <c r="E45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>92</v>
       </c>
-      <c r="E46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="2:5">
       <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="E47" t="s">
         <v>139</v>
-      </c>
-      <c r="E47" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +6738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519C8335-889B-4951-AA11-710FF5018BD1}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1767,7 +6746,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.08984375" customWidth="1"/>
     <col min="2" max="2" width="17.08984375" customWidth="1"/>
@@ -1777,15 +6756,15 @@
     <col min="6" max="6" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="48.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
@@ -1794,119 +6773,119 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.5" customHeight="1">
+      <c r="B5" t="s">
         <v>123</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
         <v>121</v>
       </c>
-      <c r="E12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" t="s">
-        <v>122</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/AMIRIS-EMLABpy Data inventoryREADME.xlsx
+++ b/data/AMIRIS-EMLABpy Data inventoryREADME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCFD59E-0B08-4CD3-B4C6-B71E33DD7859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCA0C30-E307-4EE2-ABF7-4EC82BD6F494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="-16350" windowWidth="29040" windowHeight="15840" tabRatio="858" activeTab="1" xr2:uid="{06D6063F-292D-4EBB-8494-695710908624}"/>
+    <workbookView xWindow="28680" yWindow="-16515" windowWidth="29040" windowHeight="15840" tabRatio="858" xr2:uid="{06D6063F-292D-4EBB-8494-695710908624}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="6" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="40weatheryears" sheetId="9" r:id="rId3"/>
     <sheet name="Powerplants" sheetId="8" r:id="rId4"/>
     <sheet name="EMLABparameters" sheetId="1" r:id="rId5"/>
-    <sheet name="Exported_Traderes" sheetId="2" r:id="rId6"/>
+    <sheet name="Traderes_data" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="144">
   <si>
     <t>candidate power plants</t>
   </si>
@@ -369,9 +369,6 @@
     <t xml:space="preserve">technology and fuel prices </t>
   </si>
   <si>
-    <t>node</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
     <t>investmentCosts</t>
   </si>
   <si>
-    <t>unit2020, unit2030, unit2050</t>
-  </si>
-  <si>
     <t>2050 Static  load (households + non flexible inustrial) prepared from TNO</t>
   </si>
   <si>
@@ -450,12 +444,6 @@
     <t>TNO</t>
   </si>
   <si>
-    <t>check hydrogen and biomass</t>
-  </si>
-  <si>
-    <t>various (see excel)</t>
-  </si>
-  <si>
     <t>Fuels</t>
   </si>
   <si>
@@ -478,6 +466,15 @@
   </si>
   <si>
     <t xml:space="preserve">initial power plants </t>
+  </si>
+  <si>
+    <t>fuelprices</t>
+  </si>
+  <si>
+    <t>tech_specs</t>
+  </si>
+  <si>
+    <t>fixedcosts</t>
   </si>
 </sst>
 </file>
@@ -525,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -536,6 +533,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,10 +553,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -848,7 +844,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -858,26 +854,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F790EBA3-A754-4E2E-8255-86BE883EA028}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="61.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="17.36328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -885,7 +881,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -905,7 +901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -925,7 +921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -945,7 +941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -962,7 +958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -976,13 +972,13 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1002,7 +998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1022,12 +1018,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1039,7 +1035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1059,7 +1055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1091,19 +1087,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEC486B-8D86-426D-B3C8-6DDE3231BED1}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="57.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.81640625" customWidth="1"/>
-    <col min="5" max="5" width="45.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1114,10 +1110,10 @@
         <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1125,16 +1121,16 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1145,13 +1141,13 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1162,7 +1158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1186,15 +1182,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="76.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1205,7 +1201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1213,13 +1209,13 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1227,13 +1223,13 @@
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1244,12 +1240,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>44</v>
@@ -1268,16 +1264,16 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="80.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="80.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1291,7 +1287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1305,32 +1301,32 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>105</v>
       </c>
@@ -1344,21 +1340,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2ADC10-1ADB-4694-A77C-AC6F567EDBAF}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A8" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
-    <col min="3" max="3" width="33.90625" customWidth="1"/>
-    <col min="4" max="4" width="45.26953125" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="6" max="6" width="33.08984375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1378,7 +1374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1392,7 +1388,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>87</v>
       </c>
@@ -1400,12 +1396,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1416,10 +1412,10 @@
         <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1430,10 +1426,10 @@
         <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1444,10 +1440,10 @@
         <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1458,15 +1454,15 @@
         <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -1474,7 +1470,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -1482,7 +1478,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -1498,12 +1494,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1507,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -1519,7 +1515,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -1527,12 +1523,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -1543,7 +1539,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>61</v>
       </c>
@@ -1551,7 +1547,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>58</v>
       </c>
@@ -1559,7 +1555,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>68</v>
       </c>
@@ -1567,7 +1563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -1575,7 +1571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -1583,7 +1579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>69</v>
       </c>
@@ -1591,7 +1587,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>70</v>
       </c>
@@ -1599,7 +1595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>71</v>
       </c>
@@ -1607,7 +1603,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>72</v>
       </c>
@@ -1618,7 +1614,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>73</v>
       </c>
@@ -1626,7 +1622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>77</v>
       </c>
@@ -1637,7 +1633,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -1648,15 +1644,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>79</v>
       </c>
@@ -1664,7 +1660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>80</v>
       </c>
@@ -1672,7 +1668,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>81</v>
       </c>
@@ -1680,7 +1676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>82</v>
       </c>
@@ -1688,7 +1684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>83</v>
       </c>
@@ -1696,7 +1692,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -1704,7 +1700,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>85</v>
       </c>
@@ -1712,7 +1708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>2</v>
       </c>
@@ -1720,13 +1716,13 @@
         <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>89</v>
       </c>
@@ -1734,7 +1730,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>90</v>
       </c>
@@ -1742,7 +1738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>91</v>
       </c>
@@ -1750,15 +1746,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1768,23 +1764,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519C8335-889B-4951-AA11-710FF5018BD1}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="29.36328125" customWidth="1"/>
-    <col min="4" max="4" width="42.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1801,122 +1797,128 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
       <c r="C6" t="s">
         <v>114</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="E6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>115</v>
       </c>
+      <c r="D7" s="6"/>
       <c r="E7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>116</v>
       </c>
+      <c r="D8" s="6"/>
       <c r="E8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>117</v>
       </c>
+      <c r="D9" s="6"/>
       <c r="E9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>118</v>
       </c>
+      <c r="D10" s="6"/>
       <c r="E10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>119</v>
       </c>
+      <c r="D11" s="6"/>
       <c r="E11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
         <v>120</v>
       </c>
-      <c r="E12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>108</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
         <v>113</v>
       </c>
-      <c r="E15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>135</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D6:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/AMIRIS-EMLABpy Data inventoryREADME.xlsx
+++ b/data/AMIRIS-EMLABpy Data inventoryREADME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCA0C30-E307-4EE2-ABF7-4EC82BD6F494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C9842C-CD9B-4062-98D0-FA5281244D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16515" windowWidth="29040" windowHeight="15840" tabRatio="858" xr2:uid="{06D6063F-292D-4EBB-8494-695710908624}"/>
+    <workbookView xWindow="-21810" yWindow="17250" windowWidth="29040" windowHeight="17640" tabRatio="858" activeTab="6" xr2:uid="{06D6063F-292D-4EBB-8494-695710908624}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="6" r:id="rId1"/>
@@ -19,8 +19,13 @@
     <sheet name="Powerplants" sheetId="8" r:id="rId4"/>
     <sheet name="EMLABparameters" sheetId="1" r:id="rId5"/>
     <sheet name="Traderes_data" sheetId="2" r:id="rId6"/>
+    <sheet name="CRM2050 paper" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="195">
   <si>
     <t>candidate power plants</t>
   </si>
@@ -475,13 +480,171 @@
   </si>
   <si>
     <t>fixedcosts</t>
+  </si>
+  <si>
+    <t>Biofuel</t>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>CCS gas</t>
+  </si>
+  <si>
+    <t>Hard Coal</t>
+  </si>
+  <si>
+    <t>Hydro Reservoir</t>
+  </si>
+  <si>
+    <t>hydrogen CHP</t>
+  </si>
+  <si>
+    <t>hydrogen OCGT</t>
+  </si>
+  <si>
+    <t>hydrogen CCGT</t>
+  </si>
+  <si>
+    <t>Hydropower ROR</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+  <si>
+    <t>Lithium ion battery</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>OCGT</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>PHS Discharge</t>
+  </si>
+  <si>
+    <t>Solar PV large</t>
+  </si>
+  <si>
+    <t>Solar PV rooftop</t>
+  </si>
+  <si>
+    <t>Wind Offshore</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>electrolyzer</t>
+  </si>
+  <si>
+    <t>central gas boiler</t>
+  </si>
+  <si>
+    <t>Lithium ion battery 4</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>processing_residues</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Eur/MWh</t>
+  </si>
+  <si>
+    <t>Technical lifetime</t>
+  </si>
+  <si>
+    <t>€/MW</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>CO2 (kg CO2/MWh)</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Fixed costs</t>
+  </si>
+  <si>
+    <t>Variable costs</t>
+  </si>
+  <si>
+    <t>Energy to Power Ratio</t>
+  </si>
+  <si>
+    <t>€/MWh</t>
+  </si>
+  <si>
+    <t>Technical limit</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>biofuel</t>
+  </si>
+  <si>
+    <t>Investment block</t>
+  </si>
+  <si>
+    <t>Max. lifetime extension</t>
+  </si>
+  <si>
+    <t>Permit time</t>
+  </si>
+  <si>
+    <t>Lead time</t>
+  </si>
+  <si>
+    <t>Investment costs</t>
+  </si>
+  <si>
+    <t>Charging efficiency</t>
+  </si>
+  <si>
+    <t>Discharging efficiency</t>
+  </si>
+  <si>
+    <t>Derating factor</t>
+  </si>
+  <si>
+    <t>Equity interest rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,8 +652,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,8 +704,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -518,11 +724,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -532,6 +770,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -539,8 +820,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{ECDBE5EE-B8EF-4258-BA78-D130336EB407}"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9731BF3F-DEF8-4F32-922F-AA7C3667697A}"/>
+    <cellStyle name="Standard_Emission_factors" xfId="4" xr:uid="{395C6DAD-8EB4-4A1D-AADE-D709BBBCD4B6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,10 +840,1644 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="readme"/>
+      <sheetName val="DE"/>
+      <sheetName val="NL"/>
+      <sheetName val="investmentCosts"/>
+      <sheetName val="fixedCosts"/>
+      <sheetName val="fuelprices"/>
+      <sheetName val="lifetime_technical"/>
+      <sheetName val="techspecs"/>
+      <sheetName val="yearlyCO2"/>
+      <sheetName val="YearlyTargets"/>
+      <sheetName val="sources"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>traderesTechnology</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>MW</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Wind Onshore</v>
+          </cell>
+          <cell r="B2">
+            <v>12000</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Solar PV rooftop</v>
+          </cell>
+          <cell r="B3">
+            <v>26964</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Solar PV large</v>
+          </cell>
+          <cell r="B4">
+            <v>82099</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Wind Offshore</v>
+          </cell>
+          <cell r="B5">
+            <v>70000</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Biofuel</v>
+          </cell>
+          <cell r="B6">
+            <v>12040</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>OCGT</v>
+          </cell>
+          <cell r="B7">
+            <v>2700</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>technology</v>
+          </cell>
+          <cell r="B1">
+            <v>2050</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Biofuel</v>
+          </cell>
+          <cell r="B2">
+            <v>61676</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>CCGT</v>
+          </cell>
+          <cell r="B3">
+            <v>27647.69067</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>CCS gas</v>
+          </cell>
+          <cell r="B4">
+            <v>32000</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Hard Coal</v>
+          </cell>
+          <cell r="B5">
+            <v>61528.160000000003</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Hydro Reservoir</v>
+          </cell>
+          <cell r="B6">
+            <v>14207</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>hydrogen CHP</v>
+          </cell>
+          <cell r="B7">
+            <v>30000</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>hydrogen OCGT</v>
+          </cell>
+          <cell r="B8">
+            <v>7892.9478017180809</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>hydrogen CCGT</v>
+          </cell>
+          <cell r="B9">
+            <v>27647</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Hydropower ROR</v>
+          </cell>
+          <cell r="B10">
+            <v>15715</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Lignite</v>
+          </cell>
+          <cell r="B11">
+            <v>61528.160000000003</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Lithium ion battery</v>
+          </cell>
+          <cell r="B12">
+            <v>570</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Nuclear</v>
+          </cell>
+          <cell r="B13">
+            <v>111166.3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>OCGT</v>
+          </cell>
+          <cell r="B14">
+            <v>7423</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Oil</v>
+          </cell>
+          <cell r="B15">
+            <v>8815.1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>PHS Discharge</v>
+          </cell>
+          <cell r="B16">
+            <v>24222</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Solar PV large</v>
+          </cell>
+          <cell r="B17">
+            <v>7400</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Solar PV rooftop</v>
+          </cell>
+          <cell r="B18">
+            <v>8900</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Wind Offshore</v>
+          </cell>
+          <cell r="B19">
+            <v>33000</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Wind Onshore</v>
+          </cell>
+          <cell r="B20">
+            <v>12058.65</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>electrolyzer</v>
+          </cell>
+          <cell r="B21">
+            <v>28000.000000000004</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>central gas boiler</v>
+          </cell>
+          <cell r="B22">
+            <v>1700</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Lithium ion battery 4</v>
+          </cell>
+          <cell r="B23">
+            <v>570</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Fuels keys</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>vom_cost</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>efficiency_full_load</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>ChargingEfficiency</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>EnergyToPowerRatio</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>DischargingEfficiency</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>lifetime_technical</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Biofuel</v>
+          </cell>
+          <cell r="B2">
+            <v>2.6</v>
+          </cell>
+          <cell r="C2">
+            <v>0.309</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>CCGT</v>
+          </cell>
+          <cell r="B3">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="C3">
+            <v>0.6</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>CCS gas</v>
+          </cell>
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="C4">
+            <v>0.43</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Hard Coal</v>
+          </cell>
+          <cell r="B5">
+            <v>3.5</v>
+          </cell>
+          <cell r="C5">
+            <v>0.43</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Hydro Reservoir</v>
+          </cell>
+          <cell r="B6">
+            <v>1</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>hydrogen CHP</v>
+          </cell>
+          <cell r="B7">
+            <v>2.7</v>
+          </cell>
+          <cell r="C7">
+            <v>0.85</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>hydrogen OCGT</v>
+          </cell>
+          <cell r="B8">
+            <v>4.79</v>
+          </cell>
+          <cell r="C8">
+            <v>0.43</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="G8">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>hydrogen CCGT</v>
+          </cell>
+          <cell r="B9">
+            <v>4.24</v>
+          </cell>
+          <cell r="C9">
+            <v>0.6</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Hydropower ROR</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Lignite</v>
+          </cell>
+          <cell r="B11">
+            <v>3.5</v>
+          </cell>
+          <cell r="C11">
+            <v>0.43</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>0</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="G11">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Lithium ion battery</v>
+          </cell>
+          <cell r="B12">
+            <v>1.8</v>
+          </cell>
+          <cell r="C12">
+            <v>0.92</v>
+          </cell>
+          <cell r="D12">
+            <v>0.92</v>
+          </cell>
+          <cell r="E12">
+            <v>2</v>
+          </cell>
+          <cell r="F12">
+            <v>0.92</v>
+          </cell>
+          <cell r="G12">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Nuclear</v>
+          </cell>
+          <cell r="B13">
+            <v>3.5</v>
+          </cell>
+          <cell r="C13">
+            <v>0.35</v>
+          </cell>
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+          <cell r="G13">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>OCGT</v>
+          </cell>
+          <cell r="B14">
+            <v>4.5</v>
+          </cell>
+          <cell r="C14">
+            <v>0.43</v>
+          </cell>
+          <cell r="D14">
+            <v>0</v>
+          </cell>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Oil</v>
+          </cell>
+          <cell r="B15">
+            <v>3.5</v>
+          </cell>
+          <cell r="C15">
+            <v>0.43</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>PHS Discharge</v>
+          </cell>
+          <cell r="B16">
+            <v>1</v>
+          </cell>
+          <cell r="C16">
+            <v>1</v>
+          </cell>
+          <cell r="D16">
+            <v>0.89</v>
+          </cell>
+          <cell r="E16">
+            <v>10</v>
+          </cell>
+          <cell r="F16">
+            <v>0.89</v>
+          </cell>
+          <cell r="G16">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Solar PV large</v>
+          </cell>
+          <cell r="B17">
+            <v>0.5</v>
+          </cell>
+          <cell r="C17">
+            <v>1</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+          <cell r="G17">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Solar PV rooftop</v>
+          </cell>
+          <cell r="B18">
+            <v>0.5</v>
+          </cell>
+          <cell r="C18">
+            <v>1</v>
+          </cell>
+          <cell r="D18">
+            <v>0</v>
+          </cell>
+          <cell r="E18">
+            <v>0</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+          <cell r="G18">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Wind Offshore</v>
+          </cell>
+          <cell r="B19">
+            <v>0.5</v>
+          </cell>
+          <cell r="C19">
+            <v>1</v>
+          </cell>
+          <cell r="D19">
+            <v>0</v>
+          </cell>
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+          <cell r="G19">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Wind Onshore</v>
+          </cell>
+          <cell r="B20">
+            <v>2</v>
+          </cell>
+          <cell r="C20">
+            <v>1</v>
+          </cell>
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+          <cell r="G20">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>electrolyzer</v>
+          </cell>
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+          <cell r="C21">
+            <v>0.74</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+          <cell r="G21">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>central gas boiler</v>
+          </cell>
+          <cell r="B22">
+            <v>1</v>
+          </cell>
+          <cell r="C22">
+            <v>1.04</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="G22">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Lithium ion battery 4</v>
+          </cell>
+          <cell r="B23">
+            <v>1.8</v>
+          </cell>
+          <cell r="C23">
+            <v>0.92</v>
+          </cell>
+          <cell r="D23">
+            <v>0.92</v>
+          </cell>
+          <cell r="E23">
+            <v>4</v>
+          </cell>
+          <cell r="F23">
+            <v>0.92</v>
+          </cell>
+          <cell r="G23">
+            <v>25</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="explanation"/>
+      <sheetName val="dictTech"/>
+      <sheetName val="dictFuel"/>
+      <sheetName val="TechnologyTargets"/>
+      <sheetName val="CapacityMarkets"/>
+      <sheetName val="StrategicReserveOperator"/>
+      <sheetName val="ElectricitySpotMarkets"/>
+      <sheetName val="peakLoad"/>
+      <sheetName val="Fuels"/>
+      <sheetName val="FuelPriceTrends"/>
+      <sheetName val="CandidatePowerPlants"/>
+      <sheetName val="TechnologiesEmlab"/>
+      <sheetName val="derating"/>
+      <sheetName val="TechnologyTrends"/>
+      <sheetName val="EnergyProducers"/>
+      <sheetName val="LoadShifterCap"/>
+      <sheetName val="CapacitySubscriptionConsumer"/>
+      <sheetName val="CS_subscribed"/>
+      <sheetName val="LoadShedders"/>
+      <sheetName val="LSyearly"/>
+      <sheetName val="Dismantled"/>
+      <sheetName val="weatherYears40"/>
+      <sheetName val="VOLLs"/>
+      <sheetName val="LoadShedders_feb24"/>
+      <sheetName val="LoadShedders (2)"/>
+      <sheetName val="LoadShedders2"/>
+      <sheetName val="LoadShedders_copy"/>
+      <sheetName val="dictvariables"/>
+      <sheetName val="StepTrends"/>
+      <sheetName val="EnergyConsumers"/>
+      <sheetName val="yearlytechnologyPotentials2"/>
+      <sheetName val="graphs"/>
+      <sheetName val="CO2DE"/>
+      <sheetName val="backup"/>
+      <sheetName val="weatherYearsOLD"/>
+      <sheetName val="sources"/>
+      <sheetName val="NewTechnologies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Technology</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>ViableInvestment</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Realistic_capacity</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Lithium ion battery</v>
+          </cell>
+          <cell r="C2" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="D2">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Wind Offshore</v>
+          </cell>
+          <cell r="C3" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="D3">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>hydrogen CCGT</v>
+          </cell>
+          <cell r="C4" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Solar PV large</v>
+          </cell>
+          <cell r="C5" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Wind Onshore</v>
+          </cell>
+          <cell r="C6" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="D6">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Biofuel</v>
+          </cell>
+          <cell r="C7" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>hydrogen OCGT</v>
+          </cell>
+          <cell r="C8" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Lithium ion battery 4</v>
+          </cell>
+          <cell r="C9" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>300</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>traderes technology</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>expectedPermittime</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>expectedLeadtime</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Intermittent</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>MaximumLifeExtension</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>deratingFactor</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>traderesfuels</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>interest_rate</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>hydrogen OCGT</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C2">
+            <v>2</v>
+          </cell>
+          <cell r="D2">
+            <v>2</v>
+          </cell>
+          <cell r="E2" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>6</v>
+          </cell>
+          <cell r="G2">
+            <v>1</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>hydrogen</v>
+          </cell>
+          <cell r="I2">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>hydrogen CCGT</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C3">
+            <v>2</v>
+          </cell>
+          <cell r="D3">
+            <v>2</v>
+          </cell>
+          <cell r="E3" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>6</v>
+          </cell>
+          <cell r="G3">
+            <v>1</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>hydrogen</v>
+          </cell>
+          <cell r="I3">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Biofuel</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>3</v>
+          </cell>
+          <cell r="E4" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>6</v>
+          </cell>
+          <cell r="G4">
+            <v>1</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>biomethane</v>
+          </cell>
+          <cell r="I4">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Lithium ion battery 4</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>StorageTrader</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+          <cell r="E5" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>1</v>
+          </cell>
+          <cell r="G5">
+            <v>0.25</v>
+          </cell>
+          <cell r="I5">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Lithium ion battery</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>StorageTrader</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+          <cell r="E6" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>1</v>
+          </cell>
+          <cell r="G6">
+            <v>0.16</v>
+          </cell>
+          <cell r="I6">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Nuclear</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C7">
+            <v>2</v>
+          </cell>
+          <cell r="D7">
+            <v>5</v>
+          </cell>
+          <cell r="E7" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>20</v>
+          </cell>
+          <cell r="G7">
+            <v>1</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>nuclear</v>
+          </cell>
+          <cell r="I7">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Solar PV large</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>VariableRenewableOperator</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+          <cell r="E8" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="F8">
+            <v>3</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Solar PV rooftop</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>VariableRenewableOperator</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+          <cell r="E9" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="F9">
+            <v>3</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Wind Offshore</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>VariableRenewableOperator</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>2</v>
+          </cell>
+          <cell r="E10" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="F10">
+            <v>5</v>
+          </cell>
+          <cell r="G10">
+            <v>0.06</v>
+          </cell>
+          <cell r="I10">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Wind Onshore</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>VariableRenewableOperator</v>
+          </cell>
+          <cell r="C11">
+            <v>1</v>
+          </cell>
+          <cell r="D11">
+            <v>2</v>
+          </cell>
+          <cell r="E11" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="F11">
+            <v>4</v>
+          </cell>
+          <cell r="G11">
+            <v>0.12</v>
+          </cell>
+          <cell r="I11">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>electrolyzer</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+          <cell r="E12" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
+          <cell r="I12">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>central gas boiler</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+          <cell r="E13" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+          <cell r="G13">
+            <v>1</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>natural_gas</v>
+          </cell>
+          <cell r="I13">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>CCGT</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C14">
+            <v>1</v>
+          </cell>
+          <cell r="D14">
+            <v>2</v>
+          </cell>
+          <cell r="E14" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F14">
+            <v>5</v>
+          </cell>
+          <cell r="G14">
+            <v>1</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>natural_gas</v>
+          </cell>
+          <cell r="I14">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>CCS gas</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C15">
+            <v>1</v>
+          </cell>
+          <cell r="D15">
+            <v>2</v>
+          </cell>
+          <cell r="E15" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F15">
+            <v>5</v>
+          </cell>
+          <cell r="G15">
+            <v>1</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>natural_gas</v>
+          </cell>
+          <cell r="I15">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Hard Coal</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C16">
+            <v>1</v>
+          </cell>
+          <cell r="D16">
+            <v>4</v>
+          </cell>
+          <cell r="E16" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F16">
+            <v>10</v>
+          </cell>
+          <cell r="G16">
+            <v>1</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>hard_coal</v>
+          </cell>
+          <cell r="I16">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Hydro Reservoir</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>VariableRenewableOperator</v>
+          </cell>
+          <cell r="C17">
+            <v>5</v>
+          </cell>
+          <cell r="D17">
+            <v>5</v>
+          </cell>
+          <cell r="E17" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F17">
+            <v>20</v>
+          </cell>
+          <cell r="G17">
+            <v>0.9</v>
+          </cell>
+          <cell r="I17">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>hydrogen CHP</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C18">
+            <v>2</v>
+          </cell>
+          <cell r="D18">
+            <v>2</v>
+          </cell>
+          <cell r="E18" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F18">
+            <v>5</v>
+          </cell>
+          <cell r="G18">
+            <v>1</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>hydrogen</v>
+          </cell>
+          <cell r="I18">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Hydropower ROR</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>VariableRenewableOperator</v>
+          </cell>
+          <cell r="C19">
+            <v>5</v>
+          </cell>
+          <cell r="D19">
+            <v>5</v>
+          </cell>
+          <cell r="E19" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F19">
+            <v>20</v>
+          </cell>
+          <cell r="G19">
+            <v>0.41</v>
+          </cell>
+          <cell r="I19">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Lignite</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C20">
+            <v>1</v>
+          </cell>
+          <cell r="D20">
+            <v>5</v>
+          </cell>
+          <cell r="E20" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>5</v>
+          </cell>
+          <cell r="G20">
+            <v>1</v>
+          </cell>
+          <cell r="H20" t="str">
+            <v>lignite</v>
+          </cell>
+          <cell r="I20">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>OCGT</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C21">
+            <v>1</v>
+          </cell>
+          <cell r="D21">
+            <v>2</v>
+          </cell>
+          <cell r="E21" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F21">
+            <v>5</v>
+          </cell>
+          <cell r="G21">
+            <v>1</v>
+          </cell>
+          <cell r="H21" t="str">
+            <v>natural_gas</v>
+          </cell>
+          <cell r="I21">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Oil</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>ConventionalPlantOperator</v>
+          </cell>
+          <cell r="C22">
+            <v>1</v>
+          </cell>
+          <cell r="D22">
+            <v>1</v>
+          </cell>
+          <cell r="E22" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F22">
+            <v>5</v>
+          </cell>
+          <cell r="G22">
+            <v>1</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>oil</v>
+          </cell>
+          <cell r="I22">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>PHS Discharge</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>StorageTrader</v>
+          </cell>
+          <cell r="C23">
+            <v>3</v>
+          </cell>
+          <cell r="D23">
+            <v>4</v>
+          </cell>
+          <cell r="E23" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="F23">
+            <v>20</v>
+          </cell>
+          <cell r="G23">
+            <v>0.9</v>
+          </cell>
+          <cell r="I23">
+            <v>0.05</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -596,7 +2515,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -702,7 +2621,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -844,7 +2763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -854,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F790EBA3-A754-4E2E-8255-86BE883EA028}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,14 +2791,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1340,7 +3259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2ADC10-1ADB-4694-A77C-AC6F567EDBAF}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1767,7 +3686,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,7 +3753,7 @@
       <c r="C6" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="33" t="s">
         <v>131</v>
       </c>
       <c r="E6" t="s">
@@ -1845,7 +3764,7 @@
       <c r="C7" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="33"/>
       <c r="E7" t="s">
         <v>120</v>
       </c>
@@ -1854,7 +3773,7 @@
       <c r="C8" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="33"/>
       <c r="E8" t="s">
         <v>120</v>
       </c>
@@ -1863,7 +3782,7 @@
       <c r="C9" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="33"/>
       <c r="E9" t="s">
         <v>120</v>
       </c>
@@ -1872,7 +3791,7 @@
       <c r="C10" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="33"/>
       <c r="E10" t="s">
         <v>120</v>
       </c>
@@ -1881,7 +3800,7 @@
       <c r="C11" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="33"/>
       <c r="E11" t="s">
         <v>120</v>
       </c>
@@ -1921,4 +3840,1396 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7687DA7-3C2C-45D0-9AF0-6FFA33519AD9}">
+  <dimension ref="A1:R54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="19">
+        <v>2400000</v>
+      </c>
+      <c r="C3" s="17">
+        <f>VLOOKUP(A3,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>61676</v>
+      </c>
+      <c r="D3" s="20">
+        <f>VLOOKUP($A3,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="17">
+        <f>R3*100</f>
+        <v>30.9</v>
+      </c>
+      <c r="F3" s="20">
+        <f>VLOOKUP($A3,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <f>VLOOKUP($A3,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <f>VLOOKUP($A3,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <f>VLOOKUP($A3,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>25</v>
+      </c>
+      <c r="J3" s="17">
+        <f>VLOOKUP(A3,[1]NL!$A$1:$B$7,2,0)</f>
+        <v>12040</v>
+      </c>
+      <c r="R3" s="20">
+        <f>VLOOKUP($A3,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="17">
+        <v>435982.81438000005</v>
+      </c>
+      <c r="C4" s="17">
+        <f>VLOOKUP(A4,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>7892.9478017180809</v>
+      </c>
+      <c r="D4" s="20">
+        <f>VLOOKUP($A4,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>4.79</v>
+      </c>
+      <c r="E4" s="17">
+        <f>R4*100</f>
+        <v>43</v>
+      </c>
+      <c r="F4" s="20">
+        <f>VLOOKUP($A4,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
+        <f>VLOOKUP($A4,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
+        <f>VLOOKUP($A4,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <f>VLOOKUP($A4,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>25</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="20">
+        <f>VLOOKUP($A4,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="17">
+        <v>850698.174</v>
+      </c>
+      <c r="C5" s="17">
+        <f>VLOOKUP(A5,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>27647</v>
+      </c>
+      <c r="D5" s="20">
+        <f>VLOOKUP($A5,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>4.24</v>
+      </c>
+      <c r="E5" s="17">
+        <f>R5*100</f>
+        <v>60</v>
+      </c>
+      <c r="F5" s="20">
+        <f>VLOOKUP($A5,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <f>VLOOKUP($A5,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
+        <f>VLOOKUP($A5,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <f>VLOOKUP($A5,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>25</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="20">
+        <f>VLOOKUP($A5,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="17">
+        <v>220000</v>
+      </c>
+      <c r="C6" s="17">
+        <f>VLOOKUP(A6,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>570</v>
+      </c>
+      <c r="D6" s="20">
+        <f>VLOOKUP($A6,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>1.8</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="17">
+        <f>VLOOKUP($A6,[1]techspecs!$A$1:$G$23,4,0)*100</f>
+        <v>92</v>
+      </c>
+      <c r="G6" s="17">
+        <f>VLOOKUP($A6,[1]techspecs!$A$1:$G$23,6,0)*100</f>
+        <v>92</v>
+      </c>
+      <c r="H6" s="17">
+        <f>VLOOKUP($A6,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="17">
+        <f>VLOOKUP($A6,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>25</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="20">
+        <f>VLOOKUP($A6,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="17">
+        <v>380000</v>
+      </c>
+      <c r="C7" s="17">
+        <f>VLOOKUP(A7,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>570</v>
+      </c>
+      <c r="D7" s="20">
+        <f>VLOOKUP($A7,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>1.8</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="17">
+        <f>VLOOKUP($A7,[1]techspecs!$A$1:$G$23,4,0)*100</f>
+        <v>92</v>
+      </c>
+      <c r="G7" s="17">
+        <f>VLOOKUP($A7,[1]techspecs!$A$1:$G$23,6,0)*100</f>
+        <v>92</v>
+      </c>
+      <c r="H7" s="17">
+        <f>VLOOKUP($A7,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="I7" s="17">
+        <f>VLOOKUP($A7,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>25</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="20">
+        <f>VLOOKUP($A7,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="17">
+        <v>7940450</v>
+      </c>
+      <c r="C8" s="17">
+        <f>VLOOKUP(A8,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>111166.3</v>
+      </c>
+      <c r="D8" s="20">
+        <f>VLOOKUP($A8,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E8" s="17">
+        <f>R8*100</f>
+        <v>35</v>
+      </c>
+      <c r="F8" s="20">
+        <f>VLOOKUP($A8,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <f>VLOOKUP($A8,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <f>VLOOKUP($A8,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <f>VLOOKUP($A8,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>40</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="20">
+        <f>VLOOKUP($A8,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="17">
+        <v>290000</v>
+      </c>
+      <c r="C9" s="17">
+        <f>VLOOKUP(A9,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>7400</v>
+      </c>
+      <c r="D9" s="20">
+        <f>VLOOKUP($A9,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="20">
+        <f>VLOOKUP($A9,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <f>VLOOKUP($A9,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <f>VLOOKUP($A9,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <f>VLOOKUP($A9,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <f>VLOOKUP($A9,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>25</v>
+      </c>
+      <c r="J9" s="17">
+        <f>VLOOKUP(A9,[1]NL!$A$1:$B$7,2,0)</f>
+        <v>82099</v>
+      </c>
+      <c r="R9" s="20">
+        <f>VLOOKUP($A9,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="17">
+        <v>640000</v>
+      </c>
+      <c r="C10" s="17">
+        <f>VLOOKUP(A10,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>8900</v>
+      </c>
+      <c r="D10" s="20">
+        <f>VLOOKUP($A10,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="20">
+        <f>VLOOKUP($A10,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <f>VLOOKUP($A10,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f>VLOOKUP($A10,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <f>VLOOKUP($A10,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <f>VLOOKUP($A10,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>25</v>
+      </c>
+      <c r="J10" s="17">
+        <f>VLOOKUP(A10,[1]NL!$A$1:$B$7,2,0)</f>
+        <v>26964</v>
+      </c>
+      <c r="R10" s="20">
+        <f>VLOOKUP($A10,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1640000</v>
+      </c>
+      <c r="C11" s="17">
+        <f>VLOOKUP(A11,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>33000</v>
+      </c>
+      <c r="D11" s="20">
+        <f>VLOOKUP($A11,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="20">
+        <f>VLOOKUP($A11,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <f>VLOOKUP($A11,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f>VLOOKUP($A11,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <f>VLOOKUP($A11,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <f>VLOOKUP($A11,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>30</v>
+      </c>
+      <c r="J11" s="17">
+        <f>VLOOKUP(A11,[1]NL!$A$1:$B$7,2,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="R11" s="20">
+        <f>VLOOKUP($A11,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1090288.1746699999</v>
+      </c>
+      <c r="C12" s="17">
+        <f>VLOOKUP(A12,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>12058.65</v>
+      </c>
+      <c r="D12" s="20">
+        <f>VLOOKUP($A12,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="20">
+        <f>VLOOKUP($A12,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <f>VLOOKUP($A12,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f>VLOOKUP($A12,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <f>VLOOKUP($A12,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <f>VLOOKUP($A12,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>30</v>
+      </c>
+      <c r="J12" s="17">
+        <f>VLOOKUP(A12,[1]NL!$A$1:$B$7,2,0)</f>
+        <v>12000</v>
+      </c>
+      <c r="R12" s="20">
+        <f>VLOOKUP($A12,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="R13" s="30"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="R14" s="30"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="16">
+        <f>VLOOKUP(A3,[2]TechnologiesEmlab!$A$1:$I$24,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C15" s="16">
+        <f>VLOOKUP(A3,[2]TechnologiesEmlab!$A$1:$I$23,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="16">
+        <f>VLOOKUP(A3,[2]TechnologiesEmlab!$A$1:$I$23,4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="16">
+        <f>VLOOKUP(A3,[2]CandidatePowerPlants!$B$1:$D$9,3,0)</f>
+        <v>300</v>
+      </c>
+      <c r="F15" s="29">
+        <f>VLOOKUP(A3,[2]TechnologiesEmlab!$A$1:$I$23,9,0)*100</f>
+        <v>5</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="29">
+        <f>VLOOKUP(A3,[2]TechnologiesEmlab!$A$1:$I$23,7,0)*100</f>
+        <v>100</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="R15" s="30"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="16">
+        <f>VLOOKUP(A4,[2]TechnologiesEmlab!$A$1:$I$24,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C16" s="16">
+        <f>VLOOKUP(A4,[2]TechnologiesEmlab!$A$1:$I$23,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="16">
+        <f>VLOOKUP(A4,[2]TechnologiesEmlab!$A$1:$I$23,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="16">
+        <f>VLOOKUP(A4,[2]CandidatePowerPlants!$B$1:$D$9,3,0)</f>
+        <v>400</v>
+      </c>
+      <c r="F16" s="29">
+        <f>VLOOKUP(A4,[2]TechnologiesEmlab!$A$1:$I$23,9,0)*100</f>
+        <v>8</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="29">
+        <f>VLOOKUP(A4,[2]TechnologiesEmlab!$A$1:$I$23,7,0)*100</f>
+        <v>100</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="R16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="16">
+        <f>VLOOKUP(A5,[2]TechnologiesEmlab!$A$1:$I$24,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C17" s="16">
+        <f>VLOOKUP(A5,[2]TechnologiesEmlab!$A$1:$I$23,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="16">
+        <f>VLOOKUP(A5,[2]TechnologiesEmlab!$A$1:$I$23,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="16">
+        <f>VLOOKUP(A5,[2]CandidatePowerPlants!$B$1:$D$9,3,0)</f>
+        <v>400</v>
+      </c>
+      <c r="F17" s="29">
+        <f>VLOOKUP(A5,[2]TechnologiesEmlab!$A$1:$I$23,9,0)*100</f>
+        <v>8</v>
+      </c>
+      <c r="I17" s="29">
+        <f>VLOOKUP(A5,[2]TechnologiesEmlab!$A$1:$I$23,7,0)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="16">
+        <f>VLOOKUP(A6,[2]TechnologiesEmlab!$A$1:$I$24,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="16">
+        <f>VLOOKUP(A6,[2]TechnologiesEmlab!$A$1:$I$23,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <f>VLOOKUP(A6,[2]TechnologiesEmlab!$A$1:$I$23,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="16">
+        <f>VLOOKUP(A6,[2]CandidatePowerPlants!$B$1:$D$9,3,0)</f>
+        <v>300</v>
+      </c>
+      <c r="F18" s="29">
+        <f>VLOOKUP(A6,[2]TechnologiesEmlab!$A$1:$I$23,9,0)*100</f>
+        <v>5</v>
+      </c>
+      <c r="I18" s="29">
+        <f>VLOOKUP(A6,[2]TechnologiesEmlab!$A$1:$I$23,7,0)*100</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="16">
+        <f>VLOOKUP(A7,[2]TechnologiesEmlab!$A$1:$I$24,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="16">
+        <f>VLOOKUP(A7,[2]TechnologiesEmlab!$A$1:$I$23,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <f>VLOOKUP(A7,[2]TechnologiesEmlab!$A$1:$I$23,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="16">
+        <f>VLOOKUP(A7,[2]CandidatePowerPlants!$B$1:$D$9,3,0)</f>
+        <v>300</v>
+      </c>
+      <c r="F19" s="29">
+        <f>VLOOKUP(A7,[2]TechnologiesEmlab!$A$1:$I$23,9,0)*100</f>
+        <v>5</v>
+      </c>
+      <c r="I19" s="29">
+        <f>VLOOKUP(A7,[2]TechnologiesEmlab!$A$1:$I$23,7,0)*100</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="16">
+        <f>VLOOKUP(A8,[2]TechnologiesEmlab!$A$1:$I$24,6,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C20" s="16">
+        <f>VLOOKUP(A8,[2]TechnologiesEmlab!$A$1:$I$23,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="16">
+        <f>VLOOKUP(A8,[2]TechnologiesEmlab!$A$1:$I$23,4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="29">
+        <f>VLOOKUP(A8,[2]TechnologiesEmlab!$A$1:$I$23,9,0)*100</f>
+        <v>8</v>
+      </c>
+      <c r="I20" s="29">
+        <f>VLOOKUP(A8,[2]TechnologiesEmlab!$A$1:$I$23,7,0)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="16">
+        <f>VLOOKUP(A9,[2]TechnologiesEmlab!$A$1:$I$24,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C21" s="16">
+        <f>VLOOKUP(A9,[2]TechnologiesEmlab!$A$1:$I$23,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="16">
+        <f>VLOOKUP(A9,[2]TechnologiesEmlab!$A$1:$I$23,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="16">
+        <f>VLOOKUP(A9,[2]CandidatePowerPlants!$B$1:$D$9,3,0)</f>
+        <v>300</v>
+      </c>
+      <c r="F21" s="29">
+        <f>VLOOKUP(A9,[2]TechnologiesEmlab!$A$1:$I$23,9,0)*100</f>
+        <v>5</v>
+      </c>
+      <c r="I21" s="29">
+        <f>VLOOKUP(A9,[2]TechnologiesEmlab!$A$1:$I$23,7,0)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="16">
+        <f>VLOOKUP(A10,[2]TechnologiesEmlab!$A$1:$I$24,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="16">
+        <f>VLOOKUP(A10,[2]TechnologiesEmlab!$A$1:$I$23,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <f>VLOOKUP(A10,[2]TechnologiesEmlab!$A$1:$I$23,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
+        <v>300</v>
+      </c>
+      <c r="F22" s="29">
+        <f>VLOOKUP(A10,[2]TechnologiesEmlab!$A$1:$I$23,9,0)*100</f>
+        <v>5</v>
+      </c>
+      <c r="I22" s="29">
+        <f>VLOOKUP(A10,[2]TechnologiesEmlab!$A$1:$I$23,7,0)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="16">
+        <f>VLOOKUP(A11,[2]TechnologiesEmlab!$A$1:$I$24,6,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C23" s="16">
+        <f>VLOOKUP(A11,[2]TechnologiesEmlab!$A$1:$I$23,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <f>VLOOKUP(A11,[2]TechnologiesEmlab!$A$1:$I$23,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="16">
+        <f>VLOOKUP(A11,[2]CandidatePowerPlants!$B$1:$D$9,3,0)</f>
+        <v>500</v>
+      </c>
+      <c r="F23" s="29">
+        <f>VLOOKUP(A11,[2]TechnologiesEmlab!$A$1:$I$23,9,0)*100</f>
+        <v>5</v>
+      </c>
+      <c r="I23" s="29">
+        <f>VLOOKUP(A11,[2]TechnologiesEmlab!$A$1:$I$23,7,0)*100</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="16">
+        <f>VLOOKUP(A12,[2]TechnologiesEmlab!$A$1:$I$24,6,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C24" s="16">
+        <f>VLOOKUP(A12,[2]TechnologiesEmlab!$A$1:$I$23,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="16">
+        <f>VLOOKUP(A12,[2]TechnologiesEmlab!$A$1:$I$23,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="16">
+        <f>VLOOKUP(A12,[2]CandidatePowerPlants!$B$1:$D$9,3,0)</f>
+        <v>500</v>
+      </c>
+      <c r="F24" s="29">
+        <f>VLOOKUP(A12,[2]TechnologiesEmlab!$A$1:$I$23,9,0)*100</f>
+        <v>5</v>
+      </c>
+      <c r="I24" s="29">
+        <f>VLOOKUP(A12,[2]TechnologiesEmlab!$A$1:$I$23,7,0)*100</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="7">
+        <f>ROUND(2970000*1.002*1.016*1.018*1.014*1.007,0)</f>
+        <v>3142918</v>
+      </c>
+      <c r="C27" s="11">
+        <f>VLOOKUP(A27,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>15715</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP($A27,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP($A27,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f>VLOOKUP($A27,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>VLOOKUP($A27,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>VLOOKUP($A27,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>VLOOKUP($A27,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="11">
+        <f>VLOOKUP(A28,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>61528.160000000003</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP($A28,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E28">
+        <f>VLOOKUP($A28,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.43</v>
+      </c>
+      <c r="F28">
+        <f>VLOOKUP($A28,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>VLOOKUP($A28,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>VLOOKUP($A28,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>VLOOKUP($A28,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="9">
+        <v>412000</v>
+      </c>
+      <c r="C29" s="11">
+        <f>VLOOKUP(A29,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>7423</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP($A29,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP($A29,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.43</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP($A29,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>VLOOKUP($A29,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>VLOOKUP($A29,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>VLOOKUP($A29,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="11">
+        <f>VLOOKUP(A30,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>8815.1</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP($A30,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP($A30,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.43</v>
+      </c>
+      <c r="F30">
+        <f>VLOOKUP($A30,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>VLOOKUP($A30,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>VLOOKUP($A30,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>VLOOKUP($A30,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="6">
+        <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
+        <v>3441325</v>
+      </c>
+      <c r="C31" s="11">
+        <f>VLOOKUP(A31,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>24222</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP($A31,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP($A31,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>VLOOKUP($A31,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0.89</v>
+      </c>
+      <c r="G31">
+        <f>VLOOKUP($A31,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <f>VLOOKUP($A31,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0.89</v>
+      </c>
+      <c r="I31">
+        <f>VLOOKUP($A31,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="6">
+        <v>400000</v>
+      </c>
+      <c r="C32" s="11">
+        <f>VLOOKUP(A32,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>28000.000000000004</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP($A32,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP($A32,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.74</v>
+      </c>
+      <c r="F32">
+        <f>VLOOKUP($A32,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>VLOOKUP($A32,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>VLOOKUP($A32,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>VLOOKUP($A32,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11">
+        <f>VLOOKUP(A33,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>1700</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP($A33,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP($A33,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>1.04</v>
+      </c>
+      <c r="F33">
+        <f>VLOOKUP($A33,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>VLOOKUP($A33,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>VLOOKUP($A33,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>VLOOKUP($A33,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="7">
+        <v>850698.174</v>
+      </c>
+      <c r="C34" s="11">
+        <f>VLOOKUP(A34,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>27647.69067</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP($A34,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP($A34,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F34">
+        <f>VLOOKUP($A34,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>VLOOKUP($A34,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>VLOOKUP($A34,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>VLOOKUP($A34,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="11">
+        <f>VLOOKUP(A35,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>32000</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP($A35,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP($A35,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.43</v>
+      </c>
+      <c r="F35">
+        <f>VLOOKUP($A35,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>VLOOKUP($A35,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>VLOOKUP($A35,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>VLOOKUP($A35,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="11">
+        <f>VLOOKUP(A36,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>61528.160000000003</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP($A36,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP($A36,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.43</v>
+      </c>
+      <c r="F36">
+        <f>VLOOKUP($A36,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>VLOOKUP($A36,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>VLOOKUP($A36,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>VLOOKUP($A36,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="7">
+        <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)</f>
+        <v>2841325</v>
+      </c>
+      <c r="C37" s="11">
+        <f>VLOOKUP(A37,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>14207</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP($A37,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP($A37,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f>VLOOKUP($A37,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>VLOOKUP($A37,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>VLOOKUP($A37,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>VLOOKUP($A37,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="9">
+        <v>730000</v>
+      </c>
+      <c r="C38" s="11">
+        <f>VLOOKUP(A38,[1]fixedCosts!$A$1:$B$23,2,0)</f>
+        <v>30000</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP($A38,[1]techspecs!$A$1:$G$23,2,0)</f>
+        <v>2.7</v>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP($A38,[1]techspecs!$A$1:$G$23,3,0)</f>
+        <v>0.85</v>
+      </c>
+      <c r="F38">
+        <f>VLOOKUP($A38,[1]techspecs!$A$1:$G$23,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>VLOOKUP($A38,[1]techspecs!$A$1:$G$23,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>VLOOKUP($A38,[1]techspecs!$A$1:$G$23,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>VLOOKUP($A38,[1]techspecs!$A$1:$G$23,7,0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="13">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="20">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="20">
+        <v>50.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="20">
+        <v>45.07</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="20">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="23">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="24">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="24">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="23">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/AMIRIS-EMLABpy Data inventoryREADME.xlsx
+++ b/data/AMIRIS-EMLABpy Data inventoryREADME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C9842C-CD9B-4062-98D0-FA5281244D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81BCE2B-82EC-4BCF-88E4-5B6DE413824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21810" yWindow="17250" windowWidth="29040" windowHeight="17640" tabRatio="858" activeTab="6" xr2:uid="{06D6063F-292D-4EBB-8494-695710908624}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="858" activeTab="6" xr2:uid="{06D6063F-292D-4EBB-8494-695710908624}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="196">
   <si>
     <t>candidate power plants</t>
   </si>
@@ -633,6 +633,9 @@
   </si>
   <si>
     <t>Equity interest rate</t>
+  </si>
+  <si>
+    <t>Initial capacity from COMPETES</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -752,6 +755,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -760,7 +774,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -818,6 +832,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3847,7 +3864,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,6 +3878,7 @@
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3892,6 +3910,9 @@
       <c r="J1" s="26" t="s">
         <v>183</v>
       </c>
+      <c r="K1" s="34" t="s">
+        <v>195</v>
+      </c>
       <c r="Q1" s="28"/>
       <c r="R1" s="26" t="s">
         <v>104</v>
